--- a/Features_AR1.xlsx
+++ b/Features_AR1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://drexel0-my.sharepoint.com/personal/aa3658_drexel_edu/Documents/Desktop/Research 2019/Model_Deploy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{CCD89C30-4AAE-4043-83F0-55913B92D8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4771943-CAF1-47B8-8704-4BAA774A5390}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{CCD89C30-4AAE-4043-83F0-55913B92D8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE3D07E2-0C3C-46E1-8BA7-8A578ECD9CEE}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="0" windowWidth="15660" windowHeight="8953" xr2:uid="{1D62E7C3-9DDE-4A1D-B7B5-68B42EB94A7F}"/>
+    <workbookView xWindow="16973" yWindow="-93" windowWidth="17254" windowHeight="9786" xr2:uid="{1D62E7C3-9DDE-4A1D-B7B5-68B42EB94A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B875F-0900-46B5-A857-BC10BF148668}">
   <dimension ref="A1:T194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -520,12 +520,13 @@
     <col min="6" max="6" width="12.64453125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.52734375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.64453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.76171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.8203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.8203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.234375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.9375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.52734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.9375" bestFit="1" customWidth="1"/>
@@ -558,26 +559,26 @@
       <c r="H1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
       </c>
       <c r="P1" t="s">
         <v>9</v>
@@ -620,27 +621,27 @@
       <c r="H2" s="4">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>13.8390223819149</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J33" si="0">F2-I2</f>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K33" si="0">F2-I2</f>
         <v>0.25138857698930117</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>13.4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>19.087267679445553</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
       </c>
       <c r="P2">
         <v>7</v>
@@ -649,7 +650,7 @@
         <v>78.900000000000006</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R33" si="1">Q2-B2</f>
+        <f>Q2-B2</f>
         <v>5.1000000000000085</v>
       </c>
       <c r="S2">
@@ -684,27 +685,27 @@
       <c r="H3" s="4">
         <v>-2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>10.2203832622201</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
         <f t="shared" si="0"/>
         <v>4.6042742720264993</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.4</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>19.343767057393222</v>
       </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3">
         <v>14</v>
@@ -713,7 +714,7 @@
         <v>44.6</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
+        <f>Q3-B3</f>
         <v>25.1</v>
       </c>
       <c r="S3">
@@ -748,27 +749,27 @@
       <c r="H4" s="4">
         <v>-2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>10.8806048356912</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>6.5577513286923992</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>14</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>16.801774189926093</v>
       </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4">
         <v>8</v>
@@ -777,7 +778,7 @@
         <v>52.8</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f>Q4-B4</f>
         <v>28.999999999999996</v>
       </c>
       <c r="S4">
@@ -812,27 +813,27 @@
       <c r="H5" s="4">
         <v>-2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>10.413459091249299</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>2.2933902238191006</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>20.899404337631204</v>
       </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P5">
         <v>8</v>
@@ -841,7 +842,7 @@
         <v>52.9</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f>Q5-B5</f>
         <v>9.8999999999999986</v>
       </c>
       <c r="S5">
@@ -876,27 +877,27 @@
       <c r="H6" s="4">
         <v>-2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>10.556164383561701</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>3.9972602739724987</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>6.7</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>14</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>22.763276340538265</v>
       </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6">
         <v>7</v>
@@ -905,7 +906,7 @@
         <v>52.6</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f>Q6-B6</f>
         <v>25.5</v>
       </c>
       <c r="S6">
@@ -940,27 +941,27 @@
       <c r="H7" s="4">
         <v>-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>10.158904109589001</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>0.36986301369869956</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>14</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>23.158786064888105</v>
       </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7">
         <v>9</v>
@@ -969,7 +970,7 @@
         <v>80</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f>Q7-B7</f>
         <v>4</v>
       </c>
       <c r="S7">
@@ -1004,27 +1005,27 @@
       <c r="H8" s="4">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>12.443783217306599</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>1.5972602739726014</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5.3</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>19</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>24.369523995914726</v>
       </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
       <c r="O8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8">
         <v>13</v>
@@ -1033,7 +1034,7 @@
         <v>49.6</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f>Q8-B8</f>
         <v>12.399999999999999</v>
       </c>
       <c r="S8">
@@ -1068,27 +1069,27 @@
       <c r="H9" s="4">
         <v>-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>10.156164383561601</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>0.74246575342479915</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>12.7</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>14</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>20.924222711224036</v>
       </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
       <c r="O9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9">
         <v>9</v>
@@ -1097,7 +1098,7 @@
         <v>60.8</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f>Q9-B9</f>
         <v>11.199999999999996</v>
       </c>
       <c r="S9">
@@ -1132,27 +1133,27 @@
       <c r="H10" s="4">
         <v>-2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>11.687671232876699</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>2.7753424657535</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5.7</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>14</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>14.929077539769546</v>
       </c>
-      <c r="N10" t="s">
-        <v>21</v>
-      </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10">
         <v>10</v>
@@ -1161,7 +1162,7 @@
         <v>66.099999999999994</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f>Q10-B10</f>
         <v>38.299999999999997</v>
       </c>
       <c r="S10">
@@ -1196,27 +1197,27 @@
       <c r="H11" s="4">
         <v>0.75</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>12.5972602739726</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>2.2027397260274011</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.7</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>19</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>21.268900962421391</v>
       </c>
-      <c r="N11" t="s">
-        <v>21</v>
-      </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P11">
         <v>14</v>
@@ -1225,7 +1226,7 @@
         <v>44.1</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f>Q11-B11</f>
         <v>1.8000000000000043</v>
       </c>
       <c r="S11">
@@ -1260,27 +1261,27 @@
       <c r="H12" s="4">
         <v>-2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>10.7589041095891</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>1.5287671232874995</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>7.5</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>14</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>22.427631976764857</v>
       </c>
-      <c r="N12" t="s">
-        <v>21</v>
-      </c>
       <c r="O12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P12">
         <v>8</v>
@@ -1289,7 +1290,7 @@
         <v>59</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f>Q12-B12</f>
         <v>16.799999999999997</v>
       </c>
       <c r="S12">
@@ -1324,27 +1325,27 @@
       <c r="H13" s="4">
         <v>-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>11.558904109589101</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>1.9150684931505992</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>6</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>14</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>15.063660751961759</v>
       </c>
-      <c r="N13" t="s">
-        <v>21</v>
-      </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P13">
         <v>13</v>
@@ -1353,7 +1354,7 @@
         <v>65.5</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f>Q13-B13</f>
         <v>28.5</v>
       </c>
       <c r="S13">
@@ -1388,27 +1389,27 @@
       <c r="H14" s="4">
         <v>-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>10.175342465753401</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>1.6931506849315987</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3.7</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>18</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>26.106695415664653</v>
       </c>
-      <c r="N14" t="s">
-        <v>21</v>
-      </c>
       <c r="O14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14">
         <v>12</v>
@@ -1417,7 +1418,7 @@
         <v>48.2</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f>Q14-B14</f>
         <v>18.300000000000004</v>
       </c>
       <c r="S14">
@@ -1452,27 +1453,27 @@
       <c r="H15" s="4">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>16.463013698630199</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>2.1479452054794024</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3.7</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>14</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>17.912339917508056</v>
       </c>
-      <c r="N15" t="s">
-        <v>21</v>
-      </c>
       <c r="O15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15">
         <v>12</v>
@@ -1481,7 +1482,7 @@
         <v>42.6</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f>Q15-B15</f>
         <v>10.300000000000004</v>
       </c>
       <c r="S15">
@@ -1516,27 +1517,27 @@
       <c r="H16" s="4">
         <v>4</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>15.041657309678801</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="0"/>
         <v>3.0273972602740997</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>7.8</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>14</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>11.385248627635535</v>
       </c>
-      <c r="N16" t="s">
-        <v>21</v>
-      </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P16">
         <v>8</v>
@@ -1545,7 +1546,7 @@
         <v>55.1</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f>Q16-B16</f>
         <v>11.899999999999999</v>
       </c>
       <c r="S16">
@@ -1580,27 +1581,27 @@
       <c r="H17" s="4">
         <v>-2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>10.6396062579533</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>1.3850512762933995</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5.4</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>14</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>15.194119716978495</v>
       </c>
-      <c r="N17" t="s">
-        <v>21</v>
-      </c>
       <c r="O17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P17">
         <v>12</v>
@@ -1609,7 +1610,7 @@
         <v>53.5</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f>Q17-B17</f>
         <v>26.6</v>
       </c>
       <c r="S17">
@@ -1644,27 +1645,27 @@
       <c r="H18" s="4">
         <v>-1</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>10.8779175087955</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>2.8219178082191991</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5.6</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>14</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>28.301230670581347</v>
       </c>
-      <c r="N18" t="s">
-        <v>21</v>
-      </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18">
         <v>6</v>
@@ -1673,7 +1674,7 @@
         <v>54.5</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f>Q18-B18</f>
         <v>6.5</v>
       </c>
       <c r="S18">
@@ -1708,27 +1709,27 @@
       <c r="H19" s="4">
         <v>-2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>11.534246575342401</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>2.2027397260273993</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2.1</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>18</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-0.71954285948247787</v>
       </c>
-      <c r="N19" t="s">
-        <v>21</v>
-      </c>
       <c r="O19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P19">
         <v>13</v>
@@ -1737,7 +1738,7 @@
         <v>58.5</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f>Q19-B19</f>
         <v>29.8</v>
       </c>
       <c r="S19">
@@ -1772,27 +1773,27 @@
       <c r="H20" s="4">
         <v>4</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>14.380821917808101</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>2.4986301369863977</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>14</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>20.864337578911304</v>
       </c>
-      <c r="N20" t="s">
-        <v>21</v>
-      </c>
       <c r="O20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P20">
         <v>8</v>
@@ -1801,7 +1802,7 @@
         <v>52.4</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f>Q20-B20</f>
         <v>0.60000000000000142</v>
       </c>
       <c r="S20">
@@ -1836,27 +1837,27 @@
       <c r="H21" s="4">
         <v>-2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>10.5999999999999</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>1.1945205479453005</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>14</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>16.900484008413827</v>
       </c>
-      <c r="N21" t="s">
-        <v>21</v>
-      </c>
       <c r="O21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P21">
         <v>8</v>
@@ -1865,7 +1866,7 @@
         <v>70</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f>Q21-B21</f>
         <v>16.899999999999999</v>
       </c>
       <c r="S21">
@@ -1900,27 +1901,27 @@
       <c r="H22" s="4">
         <v>-2</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>10.328767123287699</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="0"/>
         <v>3.0986301369862002</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>16</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>21.784620302455821</v>
       </c>
-      <c r="N22" t="s">
-        <v>21</v>
-      </c>
       <c r="O22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P22">
         <v>8</v>
@@ -1929,7 +1930,7 @@
         <v>48.5</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
+        <f>Q22-B22</f>
         <v>17.7</v>
       </c>
       <c r="S22">
@@ -1964,27 +1965,27 @@
       <c r="H23" s="4">
         <v>-2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>11.1219028370388</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>1.1622501684257003</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3.6</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>14</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>13.618536125462287</v>
       </c>
-      <c r="N23" t="s">
-        <v>21</v>
-      </c>
       <c r="O23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P23">
         <v>9</v>
@@ -1993,7 +1994,7 @@
         <v>51.5</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
+        <f>Q23-B23</f>
         <v>10</v>
       </c>
       <c r="S23">
@@ -2028,27 +2029,27 @@
       <c r="H24" s="4">
         <v>-2</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>11.567392768919699</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="0"/>
         <v>2.7205479452057002</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1.3</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>14</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>24.842867165184312</v>
       </c>
-      <c r="N24" t="s">
-        <v>21</v>
-      </c>
       <c r="O24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P24">
         <v>11</v>
@@ -2057,7 +2058,7 @@
         <v>51.7</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
+        <f>Q24-B24</f>
         <v>14.800000000000004</v>
       </c>
       <c r="S24">
@@ -2092,27 +2093,27 @@
       <c r="H25" s="4">
         <v>-2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>10.2904109589042</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="0"/>
         <v>1.7835616438356006</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4.3</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>16</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>26.331844489536103</v>
       </c>
-      <c r="N25" t="s">
-        <v>21</v>
-      </c>
       <c r="O25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -2121,7 +2122,7 @@
         <v>52.8</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
+        <f>Q25-B25</f>
         <v>20</v>
       </c>
       <c r="S25">
@@ -2156,27 +2157,27 @@
       <c r="H26" s="4">
         <v>-1</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>11.3823938917583</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="0"/>
         <v>2.6438356164384995</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2.9</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>16</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.8650595628864987E-2</v>
       </c>
-      <c r="N26" t="s">
-        <v>21</v>
-      </c>
       <c r="O26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P26">
         <v>8</v>
@@ -2185,7 +2186,7 @@
         <v>53.3</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
+        <f>Q26-B26</f>
         <v>19.899999999999999</v>
       </c>
       <c r="S26">
@@ -2220,27 +2221,27 @@
       <c r="H27" s="4">
         <v>-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>11.6200314394789</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="0"/>
         <v>1.9150684931508</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>7</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>14</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>22.063109992334269</v>
       </c>
-      <c r="N27" t="s">
-        <v>21</v>
-      </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P27">
         <v>8</v>
@@ -2249,7 +2250,7 @@
         <v>87.9</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
+        <f>Q27-B27</f>
         <v>49.800000000000004</v>
       </c>
       <c r="S27">
@@ -2284,27 +2285,27 @@
       <c r="H28" s="4">
         <v>0.75</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>13.244426978067199</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="0"/>
         <v>0.12841530054650008</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>5.9</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>14</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>25.195889037173661</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>20</v>
-      </c>
-      <c r="O28" t="s">
-        <v>22</v>
       </c>
       <c r="P28">
         <v>8</v>
@@ -2313,7 +2314,7 @@
         <v>57.5</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
+        <f>Q28-B28</f>
         <v>5.2000000000000028</v>
       </c>
       <c r="S28">
@@ -2348,27 +2349,27 @@
       <c r="H29" s="4">
         <v>0.75</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>12.974638820270901</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>0.54098360655739874</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>14</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>26.066610395122602</v>
       </c>
-      <c r="N29" t="s">
-        <v>21</v>
-      </c>
       <c r="O29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P29">
         <v>8</v>
@@ -2377,7 +2378,7 @@
         <v>57.1</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
+        <f>Q29-B29</f>
         <v>8.1000000000000014</v>
       </c>
       <c r="S29">
@@ -2412,27 +2413,27 @@
       <c r="H30" s="4">
         <v>-2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>11.049315068493099</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="0"/>
         <v>1.4054794520548004</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>3.8</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>16</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>32.08337049048545</v>
       </c>
-      <c r="N30" t="s">
-        <v>21</v>
-      </c>
       <c r="O30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P30">
         <v>6</v>
@@ -2441,7 +2442,7 @@
         <v>55.6</v>
       </c>
       <c r="R30">
-        <f t="shared" si="1"/>
+        <f>Q30-B30</f>
         <v>12.5</v>
       </c>
       <c r="S30">
@@ -2476,27 +2477,27 @@
       <c r="H31" s="4">
         <v>-2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>10.695808069466199</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="0"/>
         <v>2.2027397260274011</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>14</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>19.361102815896476</v>
       </c>
-      <c r="N31" t="s">
-        <v>21</v>
-      </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P31">
         <v>9</v>
@@ -2505,7 +2506,7 @@
         <v>48.7</v>
       </c>
       <c r="R31">
-        <f t="shared" si="1"/>
+        <f>Q31-B31</f>
         <v>15.100000000000001</v>
       </c>
       <c r="S31">
@@ -2540,27 +2541,27 @@
       <c r="H32" s="4">
         <v>-2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>10.8642563066098</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="0"/>
         <v>1.1905382139383001</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>8.5</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>16</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>25.260447555793643</v>
       </c>
-      <c r="N32" t="s">
-        <v>21</v>
-      </c>
       <c r="O32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P32">
         <v>7</v>
@@ -2569,7 +2570,7 @@
         <v>53.1</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
+        <f>Q32-B32</f>
         <v>16</v>
       </c>
       <c r="S32">
@@ -2604,27 +2605,27 @@
       <c r="H33" s="4">
         <v>-2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <v>11.540983606557299</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="0"/>
         <v>0.82316041619880131</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>16</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>22.108858024145608</v>
       </c>
-      <c r="N33" t="s">
-        <v>21</v>
-      </c>
       <c r="O33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P33">
         <v>9</v>
@@ -2633,7 +2634,7 @@
         <v>49.7</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
+        <f>Q33-B33</f>
         <v>12.400000000000006</v>
       </c>
       <c r="S33">
@@ -2668,27 +2669,27 @@
       <c r="H34" s="4">
         <v>-2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="4">
         <v>11.5819522419342</v>
       </c>
-      <c r="J34">
-        <f t="shared" ref="J34:J65" si="2">F34-I34</f>
+      <c r="J34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:K65" si="1">F34-I34</f>
         <v>0.91941762107949998</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>2</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>16</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>26.625386911736339</v>
       </c>
-      <c r="N34" t="s">
-        <v>21</v>
-      </c>
       <c r="O34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P34">
         <v>9</v>
@@ -2697,7 +2698,7 @@
         <v>54.3</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34:R65" si="3">Q34-B34</f>
+        <f>Q34-B34</f>
         <v>20.099999999999994</v>
       </c>
       <c r="S34">
@@ -2732,27 +2733,27 @@
       <c r="H35" s="4">
         <v>-2</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>11.8577588142825</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
+      <c r="J35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
         <v>1.4328767123289001</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>6.1</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>19</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>19.50303508176442</v>
       </c>
-      <c r="N35" t="s">
-        <v>21</v>
-      </c>
       <c r="O35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P35">
         <v>14</v>
@@ -2761,7 +2762,7 @@
         <v>68</v>
       </c>
       <c r="R35">
-        <f t="shared" si="3"/>
+        <f>Q35-B35</f>
         <v>4.5</v>
       </c>
       <c r="S35">
@@ -2796,27 +2797,27 @@
       <c r="H36" s="4">
         <v>-2</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="4">
         <v>11.7896174863388</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
+      <c r="J36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
         <v>0.30601092896180049</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>7</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>14</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>31.276438737318582</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>20</v>
-      </c>
-      <c r="O36" t="s">
-        <v>22</v>
       </c>
       <c r="P36">
         <v>8</v>
@@ -2825,7 +2826,7 @@
         <v>77.3</v>
       </c>
       <c r="R36">
-        <f t="shared" si="3"/>
+        <f>Q36-B36</f>
         <v>12.299999999999997</v>
       </c>
       <c r="S36">
@@ -2860,27 +2861,27 @@
       <c r="H37" s="4">
         <v>4</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <v>13.7326895725728</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="2"/>
+      <c r="J37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
         <v>0.32513661202190036</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5.6</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>19</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>23.936879159529141</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>20</v>
-      </c>
-      <c r="O37" t="s">
-        <v>22</v>
       </c>
       <c r="P37">
         <v>13</v>
@@ -2889,7 +2890,7 @@
         <v>68.2</v>
       </c>
       <c r="R37">
-        <f t="shared" si="3"/>
+        <f>Q37-B37</f>
         <v>0.70000000000000284</v>
       </c>
       <c r="S37">
@@ -2924,27 +2925,27 @@
       <c r="H38" s="4">
         <v>5</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="4">
         <v>16.581967213114702</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
+      <c r="J38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
         <v>1.3909648925818985</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>10.9</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>14</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>19.555185685925945</v>
       </c>
-      <c r="N38" t="s">
-        <v>21</v>
-      </c>
       <c r="O38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P38">
         <v>8</v>
@@ -2953,7 +2954,7 @@
         <v>80.900000000000006</v>
       </c>
       <c r="R38">
-        <f t="shared" si="3"/>
+        <f>Q38-B38</f>
         <v>4.4000000000000057</v>
       </c>
       <c r="S38">
@@ -2988,27 +2989,27 @@
       <c r="H39" s="4">
         <v>-2</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>12.2377049180327</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="2"/>
+      <c r="J39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
         <v>0.18874167228089966</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>10.9</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>14</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>23.622195945091537</v>
       </c>
-      <c r="N39" t="s">
-        <v>21</v>
-      </c>
       <c r="O39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P39">
         <v>8</v>
@@ -3017,7 +3018,7 @@
         <v>64.7</v>
       </c>
       <c r="R39">
-        <f t="shared" si="3"/>
+        <f>Q39-B39</f>
         <v>14.600000000000001</v>
       </c>
       <c r="S39">
@@ -3052,27 +3053,27 @@
       <c r="H40" s="4">
         <v>5</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>14.4284826708586</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="2"/>
+      <c r="J40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
         <v>0.4756269181825008</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>11.6</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>14</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>13.89029101523886</v>
       </c>
-      <c r="N40" t="s">
-        <v>21</v>
-      </c>
       <c r="O40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P40">
         <v>9</v>
@@ -3081,7 +3082,7 @@
         <v>42.4</v>
       </c>
       <c r="R40">
-        <f t="shared" si="3"/>
+        <f>Q40-B40</f>
         <v>3.8999999999999986</v>
       </c>
       <c r="S40">
@@ -3116,27 +3117,27 @@
       <c r="H41" s="4">
         <v>1</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <v>14.159869750729699</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="2"/>
+      <c r="J41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
         <v>0.31693989071050055</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>2.7</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>18</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>22.049397080559476</v>
       </c>
-      <c r="N41" t="s">
-        <v>21</v>
-      </c>
       <c r="O41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P41">
         <v>14</v>
@@ -3145,7 +3146,7 @@
         <v>53.9</v>
       </c>
       <c r="R41">
-        <f t="shared" si="3"/>
+        <f>Q41-B41</f>
         <v>0.39999999999999858</v>
       </c>
       <c r="S41">
@@ -3180,27 +3181,27 @@
       <c r="H42" s="4">
         <v>0.75</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="4">
         <v>12.549180327868999</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="2"/>
+      <c r="J42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
         <v>0.84564712927610053</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>5.4</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>14</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>11.469001406193852</v>
       </c>
-      <c r="N42" t="s">
-        <v>21</v>
-      </c>
       <c r="O42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P42">
         <v>8</v>
@@ -3209,7 +3210,7 @@
         <v>70.099999999999994</v>
       </c>
       <c r="R42">
-        <f t="shared" si="3"/>
+        <f>Q42-B42</f>
         <v>22.299999999999997</v>
       </c>
       <c r="S42">
@@ -3244,27 +3245,27 @@
       <c r="H43" s="4">
         <v>-2</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="4">
         <v>11.0799086757991</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="2"/>
+      <c r="J43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
         <v>1.4187214611872001</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>4.8</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>14</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>12.63875998524146</v>
       </c>
-      <c r="N43" t="s">
-        <v>21</v>
-      </c>
       <c r="O43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P43">
         <v>9</v>
@@ -3273,7 +3274,7 @@
         <v>40.9</v>
       </c>
       <c r="R43">
-        <f t="shared" si="3"/>
+        <f>Q43-B43</f>
         <v>10.5</v>
       </c>
       <c r="S43">
@@ -3308,27 +3309,27 @@
       <c r="H44" s="4">
         <v>-2</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <v>11.3213638745415</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="2"/>
+      <c r="J44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
         <v>2.4156224268282998</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>3.7</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>14</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>12.540335025459441</v>
       </c>
-      <c r="N44" t="s">
-        <v>21</v>
-      </c>
       <c r="O44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P44">
         <v>9</v>
@@ -3337,7 +3338,7 @@
         <v>55.5</v>
       </c>
       <c r="R44">
-        <f t="shared" si="3"/>
+        <f>Q44-B44</f>
         <v>34.299999999999997</v>
       </c>
       <c r="S44">
@@ -3372,27 +3373,27 @@
       <c r="H45" s="4">
         <v>5</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>16.573770491803302</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="2"/>
+      <c r="J45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
         <v>0.18852459016399692</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>1.9</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>14</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>18.892194396275389</v>
       </c>
-      <c r="N45" t="s">
-        <v>21</v>
-      </c>
       <c r="O45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P45">
         <v>10</v>
@@ -3401,7 +3402,7 @@
         <v>57.2</v>
       </c>
       <c r="R45">
-        <f t="shared" si="3"/>
+        <f>Q45-B45</f>
         <v>5</v>
       </c>
       <c r="S45">
@@ -3436,27 +3437,27 @@
       <c r="H46" s="4">
         <v>1</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <v>12.625683060109401</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="2"/>
+      <c r="J46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
         <v>0.70618309753719899</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>0.1</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>18</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>17.896932005953182</v>
       </c>
-      <c r="N46" t="s">
-        <v>21</v>
-      </c>
       <c r="O46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P46">
         <v>13</v>
@@ -3465,7 +3466,7 @@
         <v>64.5</v>
       </c>
       <c r="R46">
-        <f t="shared" si="3"/>
+        <f>Q46-B46</f>
         <v>18</v>
       </c>
       <c r="S46">
@@ -3500,27 +3501,27 @@
       <c r="H47" s="4">
         <v>1</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>12.4890710382513</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="2"/>
+      <c r="J47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
         <v>0.41820495546079961</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>10.9</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>14</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>21.248211059443399</v>
       </c>
-      <c r="N47" t="s">
-        <v>21</v>
-      </c>
       <c r="O47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P47">
         <v>10</v>
@@ -3529,7 +3530,7 @@
         <v>67.099999999999994</v>
       </c>
       <c r="R47">
-        <f t="shared" si="3"/>
+        <f>Q47-B47</f>
         <v>5.1999999999999957</v>
       </c>
       <c r="S47">
@@ -3564,27 +3565,27 @@
       <c r="H48" s="4">
         <v>4</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <v>13.721266561868299</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="2"/>
+      <c r="J48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
         <v>0.55270604087150055</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>5</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>14</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>22.665802573938677</v>
       </c>
-      <c r="N48" t="s">
-        <v>21</v>
-      </c>
       <c r="O48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P48">
         <v>9</v>
@@ -3593,7 +3594,7 @@
         <v>60.3</v>
       </c>
       <c r="R48">
-        <f t="shared" si="3"/>
+        <f>Q48-B48</f>
         <v>1.6999999999999957</v>
       </c>
       <c r="S48">
@@ -3628,27 +3629,27 @@
       <c r="H49" s="4">
         <v>5</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>13.5050527734111</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="2"/>
+      <c r="J49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
         <v>0.52508421289030061</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>14</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>21.587655210017257</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>20</v>
-      </c>
-      <c r="O49" t="s">
-        <v>23</v>
       </c>
       <c r="P49">
         <v>10</v>
@@ -3657,7 +3658,7 @@
         <v>52.1</v>
       </c>
       <c r="R49">
-        <f t="shared" si="3"/>
+        <f>Q49-B49</f>
         <v>4.3000000000000043</v>
       </c>
       <c r="S49">
@@ -3692,27 +3693,27 @@
       <c r="H50" s="4">
         <v>4</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>13.959615240661799</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="2"/>
+      <c r="J50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
         <v>0.26778201961230153</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>14.5</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>16</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>37.420491299325782</v>
       </c>
-      <c r="N50" t="s">
-        <v>21</v>
-      </c>
       <c r="O50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P50">
         <v>8</v>
@@ -3721,7 +3722,7 @@
         <v>69.2</v>
       </c>
       <c r="R50">
-        <f t="shared" si="3"/>
+        <f>Q50-B50</f>
         <v>4</v>
       </c>
       <c r="S50">
@@ -3756,27 +3757,27 @@
       <c r="H51" s="4">
         <v>4</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <v>12.6420765027322</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="2"/>
+      <c r="J51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
         <v>0.16393442622960031</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>14</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>21.770918242896997</v>
       </c>
-      <c r="N51" t="s">
-        <v>21</v>
-      </c>
       <c r="O51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P51">
         <v>7</v>
@@ -3785,7 +3786,7 @@
         <v>52.4</v>
       </c>
       <c r="R51">
-        <f t="shared" si="3"/>
+        <f>Q51-B51</f>
         <v>1.1000000000000014</v>
       </c>
       <c r="S51">
@@ -3820,27 +3821,27 @@
       <c r="H52" s="4">
         <v>4</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="4">
         <v>14.1210943932929</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="2"/>
+      <c r="J52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
         <v>0.12841530054650008</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>10.8</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>16</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>26.645768236739851</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>20</v>
-      </c>
-      <c r="O52" t="s">
-        <v>22</v>
       </c>
       <c r="P52">
         <v>9</v>
@@ -3849,7 +3850,7 @@
         <v>68.8</v>
       </c>
       <c r="R52">
-        <f t="shared" si="3"/>
+        <f>Q52-B52</f>
         <v>10.799999999999997</v>
       </c>
       <c r="S52">
@@ -3884,27 +3885,27 @@
       <c r="H53" s="4">
         <v>0.75</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="4">
         <v>14.4300920727599</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="2"/>
+      <c r="J53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
         <v>0.87158469945370065</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>3.7</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>14</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>14.474499635095645</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>20</v>
-      </c>
-      <c r="O53" t="s">
-        <v>22</v>
       </c>
       <c r="P53">
         <v>8</v>
@@ -3913,7 +3914,7 @@
         <v>100.7</v>
       </c>
       <c r="R53">
-        <f t="shared" si="3"/>
+        <f>Q53-B53</f>
         <v>23.299999999999997</v>
       </c>
       <c r="S53">
@@ -3948,27 +3949,27 @@
       <c r="H54" s="4">
         <v>4</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="4">
         <v>15.0256680889288</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="2"/>
+      <c r="J54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
         <v>0.76063328093409943</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>10.199999999999999</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>18</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>13.90673253237526</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>20</v>
-      </c>
-      <c r="O54" t="s">
-        <v>22</v>
       </c>
       <c r="P54">
         <v>13</v>
@@ -3977,7 +3978,7 @@
         <v>54.6</v>
       </c>
       <c r="R54">
-        <f t="shared" si="3"/>
+        <f>Q54-B54</f>
         <v>0.39999999999999858</v>
       </c>
       <c r="S54">
@@ -4012,27 +4013,27 @@
       <c r="H55" s="4">
         <v>3</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <v>13.293652219477501</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="2"/>
+      <c r="J55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
         <v>2.552923122988199</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>7.4</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>16</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>18.933282457332332</v>
       </c>
-      <c r="N55" t="s">
-        <v>21</v>
-      </c>
       <c r="O55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P55">
         <v>9</v>
@@ -4041,7 +4042,7 @@
         <v>66</v>
       </c>
       <c r="R55">
-        <f t="shared" si="3"/>
+        <f>Q55-B55</f>
         <v>14.399999999999999</v>
       </c>
       <c r="S55">
@@ -4076,27 +4077,27 @@
       <c r="H56" s="4">
         <v>-1</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="4">
         <v>13.099191556254301</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="2"/>
+      <c r="J56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
         <v>1.9912194026499002</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>15.3</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>16</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>23.800799102341333</v>
       </c>
-      <c r="N56" t="s">
-        <v>21</v>
-      </c>
       <c r="O56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P56">
         <v>7</v>
@@ -4105,7 +4106,7 @@
         <v>53</v>
       </c>
       <c r="R56">
-        <f t="shared" si="3"/>
+        <f>Q56-B56</f>
         <v>2.2000000000000028</v>
       </c>
       <c r="S56">
@@ -4140,27 +4141,27 @@
       <c r="H57" s="4">
         <v>-2</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="4">
         <v>11.9426229508197</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="2"/>
+      <c r="J57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
         <v>0.34474885844739944</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>8.4</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>14</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>13.261220095480791</v>
       </c>
-      <c r="N57" t="s">
-        <v>21</v>
-      </c>
       <c r="O57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P57">
         <v>9</v>
@@ -4169,7 +4170,7 @@
         <v>70.8</v>
       </c>
       <c r="R57">
-        <f t="shared" si="3"/>
+        <f>Q57-B57</f>
         <v>13.599999999999994</v>
       </c>
       <c r="S57">
@@ -4204,27 +4205,27 @@
       <c r="H58" s="4">
         <v>-1</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="4">
         <v>10.8877984879107</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="2"/>
+      <c r="J58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
         <v>0.30124260797969882</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>8</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>14</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>10.697563467741459</v>
       </c>
-      <c r="N58" t="s">
-        <v>21</v>
-      </c>
       <c r="O58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P58">
         <v>9</v>
@@ -4233,7 +4234,7 @@
         <v>51.9</v>
       </c>
       <c r="R58">
-        <f t="shared" si="3"/>
+        <f>Q58-B58</f>
         <v>0</v>
       </c>
       <c r="S58">
@@ -4268,27 +4269,27 @@
       <c r="H59" s="4">
         <v>0.75</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="4">
         <v>11.751141552511401</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="2"/>
+      <c r="J59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
         <v>0.26803652968030001</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>5.6</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>14</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>22.719579797441327</v>
       </c>
-      <c r="N59" t="s">
-        <v>21</v>
-      </c>
       <c r="O59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P59">
         <v>9</v>
@@ -4297,7 +4298,7 @@
         <v>58.6</v>
       </c>
       <c r="R59">
-        <f t="shared" si="3"/>
+        <f>Q59-B59</f>
         <v>4.3000000000000043</v>
       </c>
       <c r="S59">
@@ -4332,27 +4333,27 @@
       <c r="H60" s="4">
         <v>-2</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="4">
         <v>10.2551313721087</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="2"/>
+      <c r="J60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
         <v>0.54760835391859963</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>10.8</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>14</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>13.964745084371685</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>20</v>
-      </c>
-      <c r="O60" t="s">
-        <v>22</v>
       </c>
       <c r="P60">
         <v>8</v>
@@ -4361,7 +4362,7 @@
         <v>56.9</v>
       </c>
       <c r="R60">
-        <f t="shared" si="3"/>
+        <f>Q60-B60</f>
         <v>1.6999999999999957</v>
       </c>
       <c r="S60">
@@ -4396,27 +4397,27 @@
       <c r="H61" s="4">
         <v>5</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="4">
         <v>14.833273448611401</v>
       </c>
-      <c r="J61">
-        <f t="shared" si="2"/>
+      <c r="J61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
         <v>0.60782244179949885</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>0.5</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>14</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>11.62638774118887</v>
       </c>
-      <c r="N61" t="s">
-        <v>21</v>
-      </c>
       <c r="O61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P61">
         <v>11</v>
@@ -4425,7 +4426,7 @@
         <v>59.4</v>
       </c>
       <c r="R61">
-        <f t="shared" si="3"/>
+        <f>Q61-B61</f>
         <v>2.5</v>
       </c>
       <c r="S61">
@@ -4460,27 +4461,27 @@
       <c r="H62" s="4">
         <v>-1</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <v>13.4000000000001</v>
       </c>
-      <c r="J62">
-        <f t="shared" si="2"/>
+      <c r="J62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
         <v>0.37534246575340013</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>6.9</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>14</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>28.331807335220951</v>
       </c>
-      <c r="N62" t="s">
-        <v>21</v>
-      </c>
       <c r="O62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P62">
         <v>8</v>
@@ -4489,7 +4490,7 @@
         <v>81.5</v>
       </c>
       <c r="R62">
-        <f t="shared" si="3"/>
+        <f>Q62-B62</f>
         <v>11.400000000000006</v>
       </c>
       <c r="S62">
@@ -4524,27 +4525,27 @@
       <c r="H63" s="4">
         <v>-1</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="4">
         <v>12.188524590164</v>
       </c>
-      <c r="J63">
-        <f t="shared" si="2"/>
+      <c r="J63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
         <v>0.20777004266779997</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>12.6</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>14</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>29.149665228026539</v>
       </c>
-      <c r="N63" t="s">
-        <v>21</v>
-      </c>
       <c r="O63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P63">
         <v>9</v>
@@ -4553,7 +4554,7 @@
         <v>58.7</v>
       </c>
       <c r="R63">
-        <f t="shared" si="3"/>
+        <f>Q63-B63</f>
         <v>6.7000000000000028</v>
       </c>
       <c r="S63">
@@ -4588,27 +4589,27 @@
       <c r="H64" s="4">
         <v>0.75</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="4">
         <v>13.2276966838836</v>
       </c>
-      <c r="J64">
-        <f t="shared" si="2"/>
+      <c r="J64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
         <v>0.30381016543149997</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>16</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>17.072743417756122</v>
       </c>
-      <c r="N64" t="s">
-        <v>21</v>
-      </c>
       <c r="O64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P64">
         <v>8</v>
@@ -4617,7 +4618,7 @@
         <v>54.8</v>
       </c>
       <c r="R64">
-        <f t="shared" si="3"/>
+        <f>Q64-B64</f>
         <v>3.3999999999999986</v>
       </c>
       <c r="S64">
@@ -4652,27 +4653,27 @@
       <c r="H65" s="4">
         <v>-1</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="4">
         <v>13.9373231529305</v>
       </c>
-      <c r="J65">
-        <f t="shared" si="2"/>
+      <c r="J65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
         <v>0.25719739501460026</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>5.7</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>16</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>25.69064490142971</v>
       </c>
-      <c r="N65" t="s">
-        <v>21</v>
-      </c>
       <c r="O65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P65">
         <v>9</v>
@@ -4681,7 +4682,7 @@
         <v>48.3</v>
       </c>
       <c r="R65">
-        <f t="shared" si="3"/>
+        <f>Q65-B65</f>
         <v>6.8999999999999986</v>
       </c>
       <c r="S65">
@@ -4716,27 +4717,27 @@
       <c r="H66" s="4">
         <v>-2</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="4">
         <v>12.1967213114754</v>
       </c>
-      <c r="J66">
-        <f t="shared" ref="J66:J97" si="4">F66-I66</f>
+      <c r="J66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66:K97" si="2">F66-I66</f>
         <v>0.51761359383199945</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>6</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>14</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>32.269464681049122</v>
       </c>
-      <c r="N66" t="s">
-        <v>21</v>
-      </c>
       <c r="O66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P66">
         <v>8</v>
@@ -4745,7 +4746,7 @@
         <v>62.6</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R97" si="5">Q66-B66</f>
+        <f>Q66-B66</f>
         <v>3.8999999999999986</v>
       </c>
       <c r="S66">
@@ -4780,27 +4781,27 @@
       <c r="H67" s="4">
         <v>1</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="4">
         <v>12.3688524590164</v>
       </c>
-      <c r="J67">
-        <f t="shared" si="4"/>
+      <c r="J67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="2"/>
         <v>0.18621902837039883</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>7</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>16</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>19.715655627465726</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>20</v>
-      </c>
-      <c r="O67" t="s">
-        <v>22</v>
       </c>
       <c r="P67">
         <v>8</v>
@@ -4809,7 +4810,7 @@
         <v>52.5</v>
       </c>
       <c r="R67">
-        <f t="shared" si="5"/>
+        <f>Q67-B67</f>
         <v>1.8999999999999986</v>
       </c>
       <c r="S67">
@@ -4844,27 +4845,27 @@
       <c r="H68" s="4">
         <v>3</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="4">
         <v>13.4357586645708</v>
       </c>
-      <c r="J68">
-        <f t="shared" si="4"/>
+      <c r="J68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="2"/>
         <v>0.1943783217305004</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>5.4</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>14</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>21.054778384315334</v>
       </c>
-      <c r="N68" t="s">
-        <v>21</v>
-      </c>
       <c r="O68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P68">
         <v>9</v>
@@ -4873,7 +4874,7 @@
         <v>62.7</v>
       </c>
       <c r="R68">
-        <f t="shared" si="5"/>
+        <f>Q68-B68</f>
         <v>10.700000000000003</v>
       </c>
       <c r="S68">
@@ -4908,27 +4909,27 @@
       <c r="H69" s="4">
         <v>1</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="4">
         <v>14.539808368889901</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="4"/>
+      <c r="J69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="2"/>
         <v>0.18621902837029936</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>5.4</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>14</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>31.831184019334593</v>
       </c>
-      <c r="N69" t="s">
-        <v>21</v>
-      </c>
       <c r="O69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P69">
         <v>9</v>
@@ -4937,7 +4938,7 @@
         <v>52.6</v>
       </c>
       <c r="R69">
-        <f t="shared" si="5"/>
+        <f>Q69-B69</f>
         <v>15</v>
       </c>
       <c r="S69">
@@ -4972,27 +4973,27 @@
       <c r="H70" s="4">
         <v>-1</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="4">
         <v>13.5837562691818</v>
       </c>
-      <c r="J70">
-        <f t="shared" si="4"/>
+      <c r="J70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="2"/>
         <v>0.19432592259910031</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>14</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>12.898906440361936</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>20</v>
-      </c>
-      <c r="O70" t="s">
-        <v>22</v>
       </c>
       <c r="P70">
         <v>8</v>
@@ -5001,7 +5002,7 @@
         <v>52.8</v>
       </c>
       <c r="R70">
-        <f t="shared" si="5"/>
+        <f>Q70-B70</f>
         <v>7.0999999999999943</v>
       </c>
       <c r="S70">
@@ -5036,27 +5037,27 @@
       <c r="H71" s="4">
         <v>-2</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="4">
         <v>10.8328767123287</v>
       </c>
-      <c r="J71">
-        <f t="shared" si="4"/>
+      <c r="J71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="2"/>
         <v>1.2301369863013996</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>18</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>2.6585642972008259</v>
       </c>
-      <c r="N71" t="s">
-        <v>21</v>
-      </c>
       <c r="O71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P71">
         <v>15</v>
@@ -5065,7 +5066,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="R71">
-        <f t="shared" si="5"/>
+        <f>Q71-B71</f>
         <v>0.30000000000000426</v>
       </c>
       <c r="S71">
@@ -5100,27 +5101,27 @@
       <c r="H72" s="4">
         <v>-2</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="4">
         <v>13.6712703046635</v>
       </c>
-      <c r="J72">
-        <f t="shared" si="4"/>
+      <c r="J72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="2"/>
         <v>0.15612695561049961</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>5.5</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>15</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>28.003995944202416</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>20</v>
-      </c>
-      <c r="O72" t="s">
-        <v>23</v>
       </c>
       <c r="P72">
         <v>9</v>
@@ -5129,7 +5130,7 @@
         <v>70</v>
       </c>
       <c r="R72">
-        <f t="shared" si="5"/>
+        <f>Q72-B72</f>
         <v>12.399999999999999</v>
       </c>
       <c r="S72">
@@ -5164,27 +5165,27 @@
       <c r="H73" s="4">
         <v>-1</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="4">
         <v>12.431693989070901</v>
       </c>
-      <c r="J73">
-        <f t="shared" si="4"/>
+      <c r="J73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="2"/>
         <v>0.24912792873739953</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>11.5</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>14</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>29.502313385073727</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>20</v>
-      </c>
-      <c r="O73" t="s">
-        <v>23</v>
       </c>
       <c r="P73">
         <v>9</v>
@@ -5193,7 +5194,7 @@
         <v>67.099999999999994</v>
       </c>
       <c r="R73">
-        <f t="shared" si="5"/>
+        <f>Q73-B73</f>
         <v>17.499999999999993</v>
       </c>
       <c r="S73">
@@ -5228,27 +5229,27 @@
       <c r="H74" s="4">
         <v>3</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="4">
         <v>12.9289842054045</v>
       </c>
-      <c r="J74">
-        <f t="shared" si="4"/>
+      <c r="J74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="2"/>
         <v>0.20547945205500007</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>5.6</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>14</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>26.226799694085333</v>
       </c>
-      <c r="N74" t="s">
-        <v>21</v>
-      </c>
       <c r="O74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P74">
         <v>8</v>
@@ -5257,7 +5258,7 @@
         <v>50.2</v>
       </c>
       <c r="R74">
-        <f t="shared" si="5"/>
+        <f>Q74-B74</f>
         <v>4.6000000000000014</v>
       </c>
       <c r="S74">
@@ -5292,27 +5293,27 @@
       <c r="H75" s="4">
         <v>1</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="4">
         <v>13.660273972602701</v>
       </c>
-      <c r="J75">
-        <f t="shared" si="4"/>
+      <c r="J75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="2"/>
         <v>0.36438356164399899</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>2.1</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>16</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>4.2766270389895187</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>20</v>
-      </c>
-      <c r="O75" t="s">
-        <v>22</v>
       </c>
       <c r="P75">
         <v>7</v>
@@ -5321,7 +5322,7 @@
         <v>49.3</v>
       </c>
       <c r="R75">
-        <f t="shared" si="5"/>
+        <f>Q75-B75</f>
         <v>4.8999999999999986</v>
       </c>
       <c r="S75">
@@ -5356,27 +5357,27 @@
       <c r="H76" s="4">
         <v>3</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="4">
         <v>12.568320982109499</v>
       </c>
-      <c r="J76">
-        <f t="shared" si="4"/>
+      <c r="J76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="2"/>
         <v>0.13424657534240048</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>7.2</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>14</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>21.989720174955497</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>20</v>
-      </c>
-      <c r="O76" t="s">
-        <v>22</v>
       </c>
       <c r="P76">
         <v>7</v>
@@ -5385,7 +5386,7 @@
         <v>62.8</v>
       </c>
       <c r="R76">
-        <f t="shared" si="5"/>
+        <f>Q76-B76</f>
         <v>0</v>
       </c>
       <c r="S76">
@@ -5420,27 +5421,27 @@
       <c r="H77" s="4">
         <v>3</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="4">
         <v>14.005479452054701</v>
       </c>
-      <c r="J77">
-        <f t="shared" si="4"/>
+      <c r="J77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="2"/>
         <v>0.15342465753430012</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>6.2</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>14</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>15.378225266459319</v>
       </c>
-      <c r="N77" t="s">
-        <v>21</v>
-      </c>
       <c r="O77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P77">
         <v>10</v>
@@ -5449,7 +5450,7 @@
         <v>68.7</v>
       </c>
       <c r="R77">
-        <f t="shared" si="5"/>
+        <f>Q77-B77</f>
         <v>6</v>
       </c>
       <c r="S77">
@@ -5484,27 +5485,27 @@
       <c r="H78" s="4">
         <v>1</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="4">
         <v>12.368987199640699</v>
       </c>
-      <c r="J78">
-        <f t="shared" si="4"/>
+      <c r="J78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
         <v>0.30136986301370072</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>14</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>23.374709522021742</v>
       </c>
-      <c r="N78" t="s">
-        <v>21</v>
-      </c>
       <c r="O78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P78">
         <v>14</v>
@@ -5513,7 +5514,7 @@
         <v>45.3</v>
       </c>
       <c r="R78">
-        <f t="shared" si="5"/>
+        <f>Q78-B78</f>
         <v>10.099999999999994</v>
       </c>
       <c r="S78">
@@ -5548,27 +5549,27 @@
       <c r="H79" s="4">
         <v>3</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="4">
         <v>15.646575342465701</v>
       </c>
-      <c r="J79">
-        <f t="shared" si="4"/>
+      <c r="J79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="2"/>
         <v>0.12054794520549983</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>14</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>14</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>10.796211039375446</v>
       </c>
-      <c r="N79" t="s">
-        <v>21</v>
-      </c>
       <c r="O79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P79">
         <v>10</v>
@@ -5577,7 +5578,7 @@
         <v>66.5</v>
       </c>
       <c r="R79">
-        <f t="shared" si="5"/>
+        <f>Q79-B79</f>
         <v>5.7999999999999972</v>
       </c>
       <c r="S79">
@@ -5612,27 +5613,27 @@
       <c r="H80" s="4">
         <v>0.75</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="4">
         <v>12.278860693165599</v>
       </c>
-      <c r="J80">
-        <f t="shared" si="4"/>
+      <c r="J80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="2"/>
         <v>0.18630136986300094</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>8.6</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>14</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>17.903912306086358</v>
       </c>
-      <c r="N80" t="s">
-        <v>21</v>
-      </c>
       <c r="O80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P80">
         <v>8</v>
@@ -5641,7 +5642,7 @@
         <v>56.5</v>
       </c>
       <c r="R80">
-        <f t="shared" si="5"/>
+        <f>Q80-B80</f>
         <v>5.2999999999999972</v>
       </c>
       <c r="S80">
@@ -5676,27 +5677,27 @@
       <c r="H81" s="4">
         <v>-1</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="4">
         <v>12.3553185118647</v>
       </c>
-      <c r="J81">
-        <f t="shared" si="4"/>
+      <c r="J81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="2"/>
         <v>0.20547945205469986</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>4.8</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>14</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>21.343544433773129</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>20</v>
-      </c>
-      <c r="O81" t="s">
-        <v>22</v>
       </c>
       <c r="P81">
         <v>9</v>
@@ -5705,7 +5706,7 @@
         <v>65.599999999999994</v>
       </c>
       <c r="R81">
-        <f t="shared" si="5"/>
+        <f>Q81-B81</f>
         <v>0</v>
       </c>
       <c r="S81">
@@ -5740,27 +5741,27 @@
       <c r="H82" s="4">
         <v>-2</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="4">
         <v>10.3698630136987</v>
       </c>
-      <c r="J82">
-        <f t="shared" si="4"/>
+      <c r="J82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="2"/>
         <v>0.24657534246560076</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>16.600000000000001</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>14</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>21.343544433773129</v>
       </c>
-      <c r="N82" t="s">
-        <v>21</v>
-      </c>
       <c r="O82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P82">
         <v>9</v>
@@ -5769,7 +5770,7 @@
         <v>66.099999999999994</v>
       </c>
       <c r="R82">
-        <f t="shared" si="5"/>
+        <f>Q82-B82</f>
         <v>2.2999999999999972</v>
       </c>
       <c r="S82">
@@ -5804,27 +5805,27 @@
       <c r="H83" s="4">
         <v>3</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="4">
         <v>14.6931506849314</v>
       </c>
-      <c r="J83">
-        <f t="shared" si="4"/>
+      <c r="J83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="2"/>
         <v>1.2191780821917995</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>5.6</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>16</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>18.997238547908687</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>20</v>
-      </c>
-      <c r="O83" t="s">
-        <v>23</v>
       </c>
       <c r="P83">
         <v>8</v>
@@ -5833,7 +5834,7 @@
         <v>68.599999999999994</v>
       </c>
       <c r="R83">
-        <f t="shared" si="5"/>
+        <f>Q83-B83</f>
         <v>6.7999999999999972</v>
       </c>
       <c r="S83">
@@ -5868,27 +5869,27 @@
       <c r="H84" s="4">
         <v>-2</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="4">
         <v>12.134246575342599</v>
       </c>
-      <c r="J84">
-        <f t="shared" si="4"/>
+      <c r="J84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="2"/>
         <v>2.2109589041094004</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>0.5</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>15</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>10.263555647529715</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>20</v>
-      </c>
-      <c r="O84" t="s">
-        <v>23</v>
       </c>
       <c r="P84">
         <v>9</v>
@@ -5897,7 +5898,7 @@
         <v>63</v>
       </c>
       <c r="R84">
-        <f t="shared" si="5"/>
+        <f>Q84-B84</f>
         <v>37.700000000000003</v>
       </c>
       <c r="S84">
@@ -5932,27 +5933,27 @@
       <c r="H85" s="4">
         <v>-2</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="4">
         <v>12.7534246575342</v>
       </c>
-      <c r="J85">
-        <f t="shared" si="4"/>
+      <c r="J85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="2"/>
         <v>1.6958904109590005</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>16</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>30.604751635448906</v>
       </c>
-      <c r="N85" t="s">
-        <v>21</v>
-      </c>
       <c r="O85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P85">
         <v>7</v>
@@ -5961,7 +5962,7 @@
         <v>88.9</v>
       </c>
       <c r="R85">
-        <f t="shared" si="5"/>
+        <f>Q85-B85</f>
         <v>13.900000000000006</v>
       </c>
       <c r="S85">
@@ -5996,27 +5997,27 @@
       <c r="H86" s="4">
         <v>-1</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="4">
         <v>13.163507747585999</v>
       </c>
-      <c r="J86">
-        <f t="shared" si="4"/>
+      <c r="J86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="2"/>
         <v>1.1488210195373014</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>1.3</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>15</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>5.0125632625642078</v>
       </c>
-      <c r="N86" t="s">
-        <v>21</v>
-      </c>
       <c r="O86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P86">
         <v>10</v>
@@ -6025,7 +6026,7 @@
         <v>58</v>
       </c>
       <c r="R86">
-        <f t="shared" si="5"/>
+        <f>Q86-B86</f>
         <v>30.7</v>
       </c>
       <c r="S86">
@@ -6060,27 +6061,27 @@
       <c r="H87" s="4">
         <v>-1</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="4">
         <v>13.1534246575343</v>
       </c>
-      <c r="J87">
-        <f t="shared" si="4"/>
+      <c r="J87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="2"/>
         <v>0.94246575342459948</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>16</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>10.470381448814987</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>20</v>
-      </c>
-      <c r="O87" t="s">
-        <v>22</v>
       </c>
       <c r="P87">
         <v>9</v>
@@ -6089,7 +6090,7 @@
         <v>41.9</v>
       </c>
       <c r="R87">
-        <f t="shared" si="5"/>
+        <f>Q87-B87</f>
         <v>7.1999999999999957</v>
       </c>
       <c r="S87">
@@ -6124,27 +6125,27 @@
       <c r="H88" s="4">
         <v>4</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="4">
         <v>15.326027397260299</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="4"/>
+      <c r="J88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="2"/>
         <v>0.62739726027390041</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>11.3</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>14</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>22.835748810188427</v>
       </c>
-      <c r="N88" t="s">
-        <v>21</v>
-      </c>
       <c r="O88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P88">
         <v>11</v>
@@ -6153,7 +6154,7 @@
         <v>57.5</v>
       </c>
       <c r="R88">
-        <f t="shared" si="5"/>
+        <f>Q88-B88</f>
         <v>0</v>
       </c>
       <c r="S88">
@@ -6188,27 +6189,27 @@
       <c r="H89" s="4">
         <v>-1</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="4">
         <v>12.01369863</v>
       </c>
-      <c r="J89">
-        <f t="shared" si="4"/>
+      <c r="J89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="2"/>
         <v>0.42739726041089909</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>11.2</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>14</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>21.471294044051419</v>
       </c>
-      <c r="N89" t="s">
-        <v>21</v>
-      </c>
       <c r="O89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P89">
         <v>8</v>
@@ -6217,7 +6218,7 @@
         <v>57.1</v>
       </c>
       <c r="R89">
-        <f t="shared" si="5"/>
+        <f>Q89-B89</f>
         <v>7.8000000000000043</v>
       </c>
       <c r="S89">
@@ -6252,27 +6253,27 @@
       <c r="H90" s="4">
         <v>-2</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="4">
         <v>12.4895650872072</v>
       </c>
-      <c r="J90">
-        <f t="shared" si="4"/>
+      <c r="J90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="2"/>
         <v>0.22465753424650003</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>10.3</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>16</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>9.0297995713735517</v>
       </c>
-      <c r="N90" t="s">
-        <v>21</v>
-      </c>
       <c r="O90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P90">
         <v>8</v>
@@ -6281,7 +6282,7 @@
         <v>45.4</v>
       </c>
       <c r="R90">
-        <f t="shared" si="5"/>
+        <f>Q90-B90</f>
         <v>1.1000000000000014</v>
       </c>
       <c r="S90">
@@ -6316,27 +6317,27 @@
       <c r="H91" s="4">
         <v>-1</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="4">
         <v>14.578082191780799</v>
       </c>
-      <c r="J91">
-        <f t="shared" si="4"/>
+      <c r="J91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="2"/>
         <v>0.26849315068490043</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>10.4</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>15</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>24.881059798491471</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>20</v>
-      </c>
-      <c r="O91" t="s">
-        <v>23</v>
       </c>
       <c r="P91">
         <v>10</v>
@@ -6345,7 +6346,7 @@
         <v>56.9</v>
       </c>
       <c r="R91">
-        <f t="shared" si="5"/>
+        <f>Q91-B91</f>
         <v>15.600000000000001</v>
       </c>
       <c r="S91">
@@ -6380,27 +6381,27 @@
       <c r="H92" s="4">
         <v>-1</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="4">
         <v>14.5150684931507</v>
       </c>
-      <c r="J92">
-        <f t="shared" si="4"/>
+      <c r="J92" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="2"/>
         <v>0.27671232876719998</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>6</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>14</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>18.590599199041034</v>
       </c>
-      <c r="N92" t="s">
-        <v>21</v>
-      </c>
       <c r="O92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P92">
         <v>9</v>
@@ -6409,7 +6410,7 @@
         <v>46.1</v>
       </c>
       <c r="R92">
-        <f t="shared" si="5"/>
+        <f>Q92-B92</f>
         <v>5.8000000000000043</v>
       </c>
       <c r="S92">
@@ -6444,27 +6445,27 @@
       <c r="H93" s="4">
         <v>-2</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="4">
         <v>13.0233550415451</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="4"/>
+      <c r="J93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="2"/>
         <v>0.95198742420820004</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>18</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>13.138555307547508</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>20</v>
-      </c>
-      <c r="O93" t="s">
-        <v>22</v>
       </c>
       <c r="P93">
         <v>13</v>
@@ -6473,7 +6474,7 @@
         <v>73.3</v>
       </c>
       <c r="R93">
-        <f t="shared" si="5"/>
+        <f>Q93-B93</f>
         <v>23.699999999999996</v>
       </c>
       <c r="S93">
@@ -6508,27 +6509,27 @@
       <c r="H94" s="4">
         <v>3</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="4">
         <v>14.3342465753424</v>
       </c>
-      <c r="J94">
-        <f t="shared" si="4"/>
+      <c r="J94" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="2"/>
         <v>0.26027397260279983</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>11.5</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>16</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>30.801494090853481</v>
       </c>
-      <c r="N94" t="s">
-        <v>21</v>
-      </c>
       <c r="O94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P94">
         <v>9</v>
@@ -6537,7 +6538,7 @@
         <v>46.3</v>
       </c>
       <c r="R94">
-        <f t="shared" si="5"/>
+        <f>Q94-B94</f>
         <v>7.3999999999999986</v>
       </c>
       <c r="S94">
@@ -6572,27 +6573,27 @@
       <c r="H95" s="4">
         <v>-1</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="4">
         <v>12.227397260274101</v>
       </c>
-      <c r="J95">
-        <f t="shared" si="4"/>
+      <c r="J95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="2"/>
         <v>0.2520547945204985</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>10</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>14</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>10.374360041584158</v>
       </c>
-      <c r="N95" t="s">
-        <v>21</v>
-      </c>
       <c r="O95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P95">
         <v>9</v>
@@ -6601,7 +6602,7 @@
         <v>64.3</v>
       </c>
       <c r="R95">
-        <f t="shared" si="5"/>
+        <f>Q95-B95</f>
         <v>1.5</v>
       </c>
       <c r="S95">
@@ -6636,27 +6637,27 @@
       <c r="H96" s="4">
         <v>-2</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="4">
         <v>10.8684706939141</v>
       </c>
-      <c r="J96">
-        <f t="shared" si="4"/>
+      <c r="J96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="2"/>
         <v>1.9315068493152001</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>3.2</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>14</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>30.250632619763667</v>
       </c>
-      <c r="N96" t="s">
-        <v>21</v>
-      </c>
       <c r="O96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P96">
         <v>8</v>
@@ -6665,7 +6666,7 @@
         <v>74.599999999999994</v>
       </c>
       <c r="R96">
-        <f t="shared" si="5"/>
+        <f>Q96-B96</f>
         <v>40.199999999999996</v>
       </c>
       <c r="S96">
@@ -6700,27 +6701,27 @@
       <c r="H97" s="4">
         <v>-1</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="4">
         <v>11.558904109589101</v>
       </c>
-      <c r="J97">
-        <f t="shared" si="4"/>
+      <c r="J97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="2"/>
         <v>0.39726027397249908</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>6.6</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>14</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>15.470925021065078</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>20</v>
-      </c>
-      <c r="O97" t="s">
-        <v>22</v>
       </c>
       <c r="P97">
         <v>9</v>
@@ -6729,7 +6730,7 @@
         <v>55.7</v>
       </c>
       <c r="R97">
-        <f t="shared" si="5"/>
+        <f>Q97-B97</f>
         <v>7.4000000000000057</v>
       </c>
       <c r="S97">
@@ -6764,27 +6765,27 @@
       <c r="H98" s="4">
         <v>-1</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="4">
         <v>12.7786885245901</v>
       </c>
-      <c r="J98">
-        <f t="shared" ref="J98:J129" si="6">F98-I98</f>
+      <c r="J98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K98">
+        <f t="shared" ref="K98:K129" si="3">F98-I98</f>
         <v>0.63268957257280078</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>6.3</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>18</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>22.348442730086994</v>
       </c>
-      <c r="N98" t="s">
-        <v>21</v>
-      </c>
       <c r="O98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P98">
         <v>13</v>
@@ -6793,7 +6794,7 @@
         <v>78.5</v>
       </c>
       <c r="R98">
-        <f t="shared" ref="R98:R129" si="7">Q98-B98</f>
+        <f>Q98-B98</f>
         <v>7</v>
       </c>
       <c r="S98">
@@ -6828,27 +6829,27 @@
       <c r="H99" s="4">
         <v>5</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="4">
         <v>13.7589041095891</v>
       </c>
-      <c r="J99">
-        <f t="shared" si="6"/>
+      <c r="J99" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="3"/>
         <v>1.1753424657534008</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>9.4</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>16</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>26.788558187427508</v>
       </c>
-      <c r="N99" t="s">
-        <v>21</v>
-      </c>
       <c r="O99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P99">
         <v>7</v>
@@ -6857,7 +6858,7 @@
         <v>55.6</v>
       </c>
       <c r="R99">
-        <f t="shared" si="7"/>
+        <f>Q99-B99</f>
         <v>3</v>
       </c>
       <c r="S99">
@@ -6892,27 +6893,27 @@
       <c r="H100" s="4">
         <v>2</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="4">
         <v>14.5698630136985</v>
       </c>
-      <c r="J100">
-        <f t="shared" si="6"/>
+      <c r="J100" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="3"/>
         <v>0.37808219178100089</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>15.4</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>14</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>35.810218917725805</v>
       </c>
-      <c r="N100" t="s">
-        <v>21</v>
-      </c>
       <c r="O100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P100">
         <v>9</v>
@@ -6921,7 +6922,7 @@
         <v>87.8</v>
       </c>
       <c r="R100">
-        <f t="shared" si="7"/>
+        <f>Q100-B100</f>
         <v>8.7000000000000028</v>
       </c>
       <c r="S100">
@@ -6956,27 +6957,27 @@
       <c r="H101" s="4">
         <v>5</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="4">
         <v>14.939726027397199</v>
       </c>
-      <c r="J101">
-        <f t="shared" si="6"/>
+      <c r="J101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="3"/>
         <v>0.12876712328760043</v>
       </c>
-      <c r="K101">
-        <v>21</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="L101">
+        <v>21</v>
+      </c>
+      <c r="M101" t="s">
         <v>14</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>30.097651279691892</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>20</v>
-      </c>
-      <c r="O101" t="s">
-        <v>22</v>
       </c>
       <c r="P101">
         <v>8</v>
@@ -6985,7 +6986,7 @@
         <v>93.5</v>
       </c>
       <c r="R101">
-        <f t="shared" si="7"/>
+        <f>Q101-B101</f>
         <v>1.7999999999999972</v>
       </c>
       <c r="S101">
@@ -7020,27 +7021,27 @@
       <c r="H102" s="4">
         <v>3</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="4">
         <v>12.9704094617859</v>
       </c>
-      <c r="J102">
-        <f t="shared" si="6"/>
+      <c r="J102" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="3"/>
         <v>0.9583576615016991</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>8.1</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>14</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>20.008956101131151</v>
       </c>
-      <c r="N102" t="s">
-        <v>21</v>
-      </c>
       <c r="O102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P102">
         <v>12</v>
@@ -7049,7 +7050,7 @@
         <v>41.8</v>
       </c>
       <c r="R102">
-        <f t="shared" si="7"/>
+        <f>Q102-B102</f>
         <v>13.299999999999997</v>
       </c>
       <c r="S102">
@@ -7084,27 +7085,27 @@
       <c r="H103" s="4">
         <v>5</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="4">
         <v>16.213698630137099</v>
       </c>
-      <c r="J103">
-        <f t="shared" si="6"/>
+      <c r="J103" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="3"/>
         <v>0.20821917808209989</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>14.4</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>16</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>19.667486532468789</v>
       </c>
-      <c r="N103" t="s">
-        <v>21</v>
-      </c>
       <c r="O103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P103">
         <v>9</v>
@@ -7113,7 +7114,7 @@
         <v>54.5</v>
       </c>
       <c r="R103">
-        <f t="shared" si="7"/>
+        <f>Q103-B103</f>
         <v>5.2999999999999972</v>
       </c>
       <c r="S103">
@@ -7148,27 +7149,27 @@
       <c r="H104" s="4">
         <v>-2</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="4">
         <v>10.4684931506849</v>
       </c>
-      <c r="J104">
-        <f t="shared" si="6"/>
+      <c r="J104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="3"/>
         <v>0.82465753424670041</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>2.4</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>14</v>
       </c>
-      <c r="M104">
+      <c r="N104">
         <v>17.56460090101352</v>
       </c>
-      <c r="N104" t="s">
-        <v>21</v>
-      </c>
       <c r="O104" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P104">
         <v>9</v>
@@ -7177,7 +7178,7 @@
         <v>55.4</v>
       </c>
       <c r="R104">
-        <f t="shared" si="7"/>
+        <f>Q104-B104</f>
         <v>13.600000000000001</v>
       </c>
       <c r="S104">
@@ -7212,27 +7213,27 @@
       <c r="H105" s="4">
         <v>2</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="4">
         <v>13.0007934725654</v>
       </c>
-      <c r="J105">
-        <f t="shared" si="6"/>
+      <c r="J105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="3"/>
         <v>0.33150684931499974</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>14</v>
       </c>
-      <c r="M105">
+      <c r="N105">
         <v>19.842531935831868</v>
       </c>
-      <c r="N105" t="s">
+      <c r="O105" t="s">
         <v>20</v>
-      </c>
-      <c r="O105" t="s">
-        <v>22</v>
       </c>
       <c r="P105">
         <v>9</v>
@@ -7241,7 +7242,7 @@
         <v>56.1</v>
       </c>
       <c r="R105">
-        <f t="shared" si="7"/>
+        <f>Q105-B105</f>
         <v>9.8000000000000043</v>
       </c>
       <c r="S105">
@@ -7276,27 +7277,27 @@
       <c r="H106" s="4">
         <v>4</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="4">
         <v>13.09968560521</v>
       </c>
-      <c r="J106">
-        <f t="shared" si="6"/>
+      <c r="J106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="3"/>
         <v>0.16712328767130025</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>2.8</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>14</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <v>25.820290697387005</v>
       </c>
-      <c r="N106" t="s">
+      <c r="O106" t="s">
         <v>20</v>
-      </c>
-      <c r="O106" t="s">
-        <v>22</v>
       </c>
       <c r="P106">
         <v>9</v>
@@ -7305,7 +7306,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="R106">
-        <f t="shared" si="7"/>
+        <f>Q106-B106</f>
         <v>5.7000000000000028</v>
       </c>
       <c r="S106">
@@ -7340,27 +7341,27 @@
       <c r="H107" s="4">
         <v>-2</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="4">
         <v>12.431693989070901</v>
       </c>
-      <c r="J107">
-        <f t="shared" si="6"/>
+      <c r="J107" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="3"/>
         <v>3.0565536342542998</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>2.9</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>14</v>
       </c>
-      <c r="M107">
+      <c r="N107">
         <v>-1.1344338413650539</v>
       </c>
-      <c r="N107" t="s">
-        <v>21</v>
-      </c>
       <c r="O107" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P107">
         <v>9</v>
@@ -7369,7 +7370,7 @@
         <v>74.3</v>
       </c>
       <c r="R107">
-        <f t="shared" si="7"/>
+        <f>Q107-B107</f>
         <v>34.099999999999994</v>
       </c>
       <c r="S107">
@@ -7404,27 +7405,27 @@
       <c r="H108" s="4">
         <v>5</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="4">
         <v>13.0884048207201</v>
       </c>
-      <c r="J108">
-        <f t="shared" si="6"/>
+      <c r="J108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="3"/>
         <v>0.79452054794530014</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>7.6</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>16</v>
       </c>
-      <c r="M108">
+      <c r="N108">
         <v>27.115836093847076</v>
       </c>
-      <c r="N108" t="s">
-        <v>21</v>
-      </c>
       <c r="O108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P108">
         <v>9</v>
@@ -7433,7 +7434,7 @@
         <v>70.2</v>
       </c>
       <c r="R108">
-        <f t="shared" si="7"/>
+        <f>Q108-B108</f>
         <v>8.8000000000000043</v>
       </c>
       <c r="S108">
@@ -7468,27 +7469,27 @@
       <c r="H109" s="4">
         <v>-2</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="4">
         <v>12.6383561643836</v>
       </c>
-      <c r="J109">
-        <f t="shared" si="6"/>
+      <c r="J109" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="3"/>
         <v>0.39999999999990088</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>14.7</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>14</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>30.324586981566718</v>
       </c>
-      <c r="N109" t="s">
-        <v>21</v>
-      </c>
       <c r="O109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P109">
         <v>8</v>
@@ -7497,7 +7498,7 @@
         <v>71.099999999999994</v>
       </c>
       <c r="R109">
-        <f t="shared" si="7"/>
+        <f>Q109-B109</f>
         <v>12.899999999999991</v>
       </c>
       <c r="S109">
@@ -7532,27 +7533,27 @@
       <c r="H110" s="4">
         <v>4</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="4">
         <v>14.8082191780823</v>
       </c>
-      <c r="J110">
-        <f t="shared" si="6"/>
+      <c r="J110" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="3"/>
         <v>0.5616438356163993</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>10.1</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>14</v>
       </c>
-      <c r="M110">
+      <c r="N110">
         <v>33.001090751171141</v>
       </c>
-      <c r="N110" t="s">
+      <c r="O110" t="s">
         <v>20</v>
-      </c>
-      <c r="O110" t="s">
-        <v>22</v>
       </c>
       <c r="P110">
         <v>9</v>
@@ -7561,7 +7562,7 @@
         <v>58.6</v>
       </c>
       <c r="R110">
-        <f t="shared" si="7"/>
+        <f>Q110-B110</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="S110">
@@ -7596,27 +7597,27 @@
       <c r="H111" s="4">
         <v>2</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="4">
         <v>12.506789430346499</v>
       </c>
-      <c r="J111">
-        <f t="shared" si="6"/>
+      <c r="J111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="3"/>
         <v>0.58082191780820125</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>4.8</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>14</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>12.149701797529247</v>
       </c>
-      <c r="N111" t="s">
-        <v>21</v>
-      </c>
       <c r="O111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P111">
         <v>9</v>
@@ -7625,7 +7626,7 @@
         <v>56.9</v>
       </c>
       <c r="R111">
-        <f t="shared" si="7"/>
+        <f>Q111-B111</f>
         <v>14.5</v>
       </c>
       <c r="S111">
@@ -7660,27 +7661,27 @@
       <c r="H112" s="4">
         <v>-2</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="4">
         <v>11.2082191780821</v>
       </c>
-      <c r="J112">
-        <f t="shared" si="6"/>
+      <c r="J112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="3"/>
         <v>0.48767123287690062</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L112" t="s">
+      <c r="M112" t="s">
         <v>18</v>
       </c>
-      <c r="M112">
+      <c r="N112">
         <v>23.578200979292436</v>
       </c>
-      <c r="N112" t="s">
+      <c r="O112" t="s">
         <v>20</v>
-      </c>
-      <c r="O112" t="s">
-        <v>22</v>
       </c>
       <c r="P112">
         <v>13</v>
@@ -7689,7 +7690,7 @@
         <v>56.8</v>
       </c>
       <c r="R112">
-        <f t="shared" si="7"/>
+        <f>Q112-B112</f>
         <v>6.7999999999999972</v>
       </c>
       <c r="S112">
@@ -7724,27 +7725,27 @@
       <c r="H113" s="4">
         <v>4</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="4">
         <v>15.8191780821917</v>
       </c>
-      <c r="J113">
-        <f t="shared" si="6"/>
+      <c r="J113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="3"/>
         <v>1.0136986301370019</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>14</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>23.335281869502179</v>
       </c>
-      <c r="N113" t="s">
-        <v>21</v>
-      </c>
       <c r="O113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P113">
         <v>10</v>
@@ -7753,7 +7754,7 @@
         <v>57.1</v>
       </c>
       <c r="R113">
-        <f t="shared" si="7"/>
+        <f>Q113-B113</f>
         <v>2.3999999999999986</v>
       </c>
       <c r="S113">
@@ -7788,27 +7789,27 @@
       <c r="H114" s="4">
         <v>5</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="4">
         <v>14.676712328767101</v>
       </c>
-      <c r="J114">
-        <f t="shared" si="6"/>
+      <c r="J114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="3"/>
         <v>0.84383561643829985</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <v>9.1</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>16</v>
       </c>
-      <c r="M114">
+      <c r="N114">
         <v>26.386331910764518</v>
       </c>
-      <c r="N114" t="s">
-        <v>21</v>
-      </c>
       <c r="O114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P114">
         <v>9</v>
@@ -7817,7 +7818,7 @@
         <v>50.4</v>
       </c>
       <c r="R114">
-        <f t="shared" si="7"/>
+        <f>Q114-B114</f>
         <v>11.899999999999999</v>
       </c>
       <c r="S114">
@@ -7852,27 +7853,27 @@
       <c r="H115" s="4">
         <v>1</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="4">
         <v>11.7232876712328</v>
       </c>
-      <c r="J115">
-        <f t="shared" si="6"/>
+      <c r="J115" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="3"/>
         <v>0.39726027397269981</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>9</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>14</v>
       </c>
-      <c r="M115">
+      <c r="N115">
         <v>23.352589751358828</v>
       </c>
-      <c r="N115" t="s">
-        <v>21</v>
-      </c>
       <c r="O115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P115">
         <v>9</v>
@@ -7881,7 +7882,7 @@
         <v>55.1</v>
       </c>
       <c r="R115">
-        <f t="shared" si="7"/>
+        <f>Q115-B115</f>
         <v>10.399999999999999</v>
       </c>
       <c r="S115">
@@ -7916,27 +7917,27 @@
       <c r="H116" s="4">
         <v>-2</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="4">
         <v>12.4849315068493</v>
       </c>
-      <c r="J116">
-        <f t="shared" si="6"/>
+      <c r="J116" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="3"/>
         <v>0.79452054794520066</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>0.1</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>19</v>
       </c>
-      <c r="M116">
+      <c r="N116">
         <v>13.288587794050507</v>
       </c>
-      <c r="N116" t="s">
-        <v>21</v>
-      </c>
       <c r="O116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P116">
         <v>12</v>
@@ -7945,7 +7946,7 @@
         <v>64.3</v>
       </c>
       <c r="R116">
-        <f t="shared" si="7"/>
+        <f>Q116-B116</f>
         <v>2.1999999999999957</v>
       </c>
       <c r="S116">
@@ -7980,27 +7981,27 @@
       <c r="H117" s="4">
         <v>2</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="4">
         <v>12.829141402799699</v>
       </c>
-      <c r="J117">
-        <f t="shared" si="6"/>
+      <c r="J117" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="3"/>
         <v>0.994520547945001</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>10.3</v>
       </c>
-      <c r="L117" t="s">
+      <c r="M117" t="s">
         <v>16</v>
       </c>
-      <c r="M117">
+      <c r="N117">
         <v>17.24549688940796</v>
       </c>
-      <c r="N117" t="s">
+      <c r="O117" t="s">
         <v>20</v>
-      </c>
-      <c r="O117" t="s">
-        <v>22</v>
       </c>
       <c r="P117">
         <v>9</v>
@@ -8009,7 +8010,7 @@
         <v>48.9</v>
       </c>
       <c r="R117">
-        <f t="shared" si="7"/>
+        <f>Q117-B117</f>
         <v>1.6000000000000014</v>
       </c>
       <c r="S117">
@@ -8044,27 +8045,27 @@
       <c r="H118" s="4">
         <v>-2</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="4">
         <v>13.063762257653901</v>
       </c>
-      <c r="J118">
-        <f t="shared" si="6"/>
+      <c r="J118" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="3"/>
         <v>0.71780821917809945</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>1.2</v>
       </c>
-      <c r="L118" t="s">
+      <c r="M118" t="s">
         <v>16</v>
       </c>
-      <c r="M118">
+      <c r="N118">
         <v>24.190546278102737</v>
       </c>
-      <c r="N118" t="s">
-        <v>21</v>
-      </c>
       <c r="O118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P118">
         <v>8</v>
@@ -8073,7 +8074,7 @@
         <v>64.400000000000006</v>
       </c>
       <c r="R118">
-        <f t="shared" si="7"/>
+        <f>Q118-B118</f>
         <v>15.300000000000004</v>
       </c>
       <c r="S118">
@@ -8108,27 +8109,27 @@
       <c r="H119" s="4">
         <v>-2</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="4">
         <v>10.1780821917807</v>
       </c>
-      <c r="J119">
-        <f t="shared" si="6"/>
+      <c r="J119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="3"/>
         <v>0.49041095890430064</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>8</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>14</v>
       </c>
-      <c r="M119">
+      <c r="N119">
         <v>9.1830922268501265</v>
       </c>
-      <c r="N119" t="s">
-        <v>21</v>
-      </c>
       <c r="O119" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P119">
         <v>10</v>
@@ -8137,7 +8138,7 @@
         <v>53.9</v>
       </c>
       <c r="R119">
-        <f t="shared" si="7"/>
+        <f>Q119-B119</f>
         <v>1</v>
       </c>
       <c r="S119">
@@ -8172,27 +8173,27 @@
       <c r="H120" s="4">
         <v>-2</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="4">
         <v>10.6082191780822</v>
       </c>
-      <c r="J120">
-        <f t="shared" si="6"/>
+      <c r="J120" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="3"/>
         <v>0.53698630136980086</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>10.7</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>14</v>
       </c>
-      <c r="M120">
+      <c r="N120">
         <v>25.690644901429717</v>
       </c>
-      <c r="N120" t="s">
-        <v>21</v>
-      </c>
       <c r="O120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P120">
         <v>8</v>
@@ -8201,7 +8202,7 @@
         <v>79.8</v>
       </c>
       <c r="R120">
-        <f t="shared" si="7"/>
+        <f>Q120-B120</f>
         <v>22.299999999999997</v>
       </c>
       <c r="S120">
@@ -8236,27 +8237,27 @@
       <c r="H121" s="4">
         <v>-1</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="4">
         <v>12.979646680140799</v>
       </c>
-      <c r="J121">
-        <f t="shared" si="6"/>
+      <c r="J121" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="3"/>
         <v>0.20547945205480111</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>6.5</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>16</v>
       </c>
-      <c r="M121">
+      <c r="N121">
         <v>35.646342621438393</v>
       </c>
-      <c r="N121" t="s">
+      <c r="O121" t="s">
         <v>20</v>
-      </c>
-      <c r="O121" t="s">
-        <v>23</v>
       </c>
       <c r="P121">
         <v>7</v>
@@ -8265,7 +8266,7 @@
         <v>60.3</v>
       </c>
       <c r="R121">
-        <f t="shared" si="7"/>
+        <f>Q121-B121</f>
         <v>8.0999999999999943</v>
       </c>
       <c r="S121">
@@ -8300,27 +8301,27 @@
       <c r="H122" s="4">
         <v>-1</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="4">
         <v>11.704109589041099</v>
       </c>
-      <c r="J122">
-        <f t="shared" si="6"/>
+      <c r="J122" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="3"/>
         <v>0.80821917808220078</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>9</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>14</v>
       </c>
-      <c r="M122">
+      <c r="N122">
         <v>29.502313385073727</v>
       </c>
-      <c r="N122" t="s">
-        <v>21</v>
-      </c>
       <c r="O122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P122">
         <v>8</v>
@@ -8329,7 +8330,7 @@
         <v>75.3</v>
       </c>
       <c r="R122">
-        <f t="shared" si="7"/>
+        <f>Q122-B122</f>
         <v>21.5</v>
       </c>
       <c r="S122">
@@ -8364,27 +8365,27 @@
       <c r="H123" s="4">
         <v>-1</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="4">
         <v>12.8375402350475</v>
       </c>
-      <c r="J123">
-        <f t="shared" si="6"/>
+      <c r="J123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="3"/>
         <v>0.29315068493160013</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>6.6</v>
       </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
         <v>19</v>
       </c>
-      <c r="M123">
+      <c r="N123">
         <v>19.710784560148216</v>
       </c>
-      <c r="N123" t="s">
-        <v>21</v>
-      </c>
       <c r="O123" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P123">
         <v>14</v>
@@ -8393,7 +8394,7 @@
         <v>48.1</v>
       </c>
       <c r="R123">
-        <f t="shared" si="7"/>
+        <f>Q123-B123</f>
         <v>1.1000000000000014</v>
       </c>
       <c r="S123">
@@ -8428,27 +8429,27 @@
       <c r="H124" s="4">
         <v>-2</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="4">
         <v>11.380821917808101</v>
       </c>
-      <c r="J124">
-        <f t="shared" si="6"/>
+      <c r="J124" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="3"/>
         <v>0.49863013698639946</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>10.6</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>14</v>
       </c>
-      <c r="M124">
+      <c r="N124">
         <v>25.12556357194287</v>
       </c>
-      <c r="N124" t="s">
-        <v>21</v>
-      </c>
       <c r="O124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P124">
         <v>8</v>
@@ -8457,7 +8458,7 @@
         <v>51.5</v>
       </c>
       <c r="R124">
-        <f t="shared" si="7"/>
+        <f>Q124-B124</f>
         <v>5.8999999999999986</v>
       </c>
       <c r="S124">
@@ -8492,27 +8493,27 @@
       <c r="H125" s="4">
         <v>-1</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="4">
         <v>13.176615016094001</v>
       </c>
-      <c r="J125">
-        <f t="shared" si="6"/>
+      <c r="J125" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="3"/>
         <v>0.11506849315059853</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>8.4</v>
       </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
         <v>14</v>
       </c>
-      <c r="M125">
+      <c r="N125">
         <v>31.972664138165626</v>
       </c>
-      <c r="N125" t="s">
-        <v>21</v>
-      </c>
       <c r="O125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P125">
         <v>10</v>
@@ -8521,7 +8522,7 @@
         <v>78.7</v>
       </c>
       <c r="R125">
-        <f t="shared" si="7"/>
+        <f>Q125-B125</f>
         <v>8.7000000000000028</v>
       </c>
       <c r="S125">
@@ -8556,27 +8557,27 @@
       <c r="H126" s="4">
         <v>-2</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="4">
         <v>12.286885245901701</v>
       </c>
-      <c r="J126">
-        <f t="shared" si="6"/>
+      <c r="J126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="3"/>
         <v>2.7132794370835995</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>1.2</v>
       </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
         <v>14</v>
       </c>
-      <c r="M126">
+      <c r="N126">
         <v>2.9750589423770366</v>
       </c>
-      <c r="N126" t="s">
-        <v>21</v>
-      </c>
       <c r="O126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P126">
         <v>10</v>
@@ -8585,7 +8586,7 @@
         <v>57.3</v>
       </c>
       <c r="R126">
-        <f t="shared" si="7"/>
+        <f>Q126-B126</f>
         <v>46.4</v>
       </c>
       <c r="S126">
@@ -8620,27 +8621,27 @@
       <c r="H127" s="4">
         <v>-1</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="4">
         <v>12.9088030541209</v>
       </c>
-      <c r="J127">
-        <f t="shared" si="6"/>
+      <c r="J127" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="3"/>
         <v>0.28493150684919932</v>
       </c>
-      <c r="K127">
+      <c r="L127">
         <v>4.7</v>
       </c>
-      <c r="L127" t="s">
+      <c r="M127" t="s">
         <v>16</v>
       </c>
-      <c r="M127">
+      <c r="N127">
         <v>20.090028612812823</v>
       </c>
-      <c r="N127" t="s">
+      <c r="O127" t="s">
         <v>20</v>
-      </c>
-      <c r="O127" t="s">
-        <v>22</v>
       </c>
       <c r="P127">
         <v>8</v>
@@ -8649,7 +8650,7 @@
         <v>57.7</v>
       </c>
       <c r="R127">
-        <f t="shared" si="7"/>
+        <f>Q127-B127</f>
         <v>3.7000000000000028</v>
       </c>
       <c r="S127">
@@ -8684,27 +8685,27 @@
       <c r="H128" s="4">
         <v>-1</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="4">
         <v>13.667145744441999</v>
       </c>
-      <c r="J128">
-        <f t="shared" si="6"/>
+      <c r="J128" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="3"/>
         <v>1.3766898719964011</v>
       </c>
-      <c r="K128">
+      <c r="L128">
         <v>2</v>
       </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>15</v>
       </c>
-      <c r="M128">
+      <c r="N128">
         <v>12.910025159686365</v>
       </c>
-      <c r="N128" t="s">
-        <v>21</v>
-      </c>
       <c r="O128" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P128">
         <v>9</v>
@@ -8713,7 +8714,7 @@
         <v>52</v>
       </c>
       <c r="R128">
-        <f t="shared" si="7"/>
+        <f>Q128-B128</f>
         <v>27</v>
       </c>
       <c r="S128">
@@ -8748,27 +8749,27 @@
       <c r="H129" s="4">
         <v>-2</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="4">
         <v>11.147945205479299</v>
       </c>
-      <c r="J129">
-        <f t="shared" si="6"/>
+      <c r="J129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="3"/>
         <v>0.44931506849330027</v>
       </c>
-      <c r="K129">
+      <c r="L129">
         <v>3</v>
       </c>
-      <c r="L129" t="s">
+      <c r="M129" t="s">
         <v>14</v>
       </c>
-      <c r="M129">
+      <c r="N129">
         <v>25.797971975288743</v>
       </c>
-      <c r="N129" t="s">
-        <v>21</v>
-      </c>
       <c r="O129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P129">
         <v>8</v>
@@ -8777,7 +8778,7 @@
         <v>58.4</v>
       </c>
       <c r="R129">
-        <f t="shared" si="7"/>
+        <f>Q129-B129</f>
         <v>5.1000000000000014</v>
       </c>
       <c r="S129">
@@ -8812,27 +8813,27 @@
       <c r="H130" s="4">
         <v>-2</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="4">
         <v>12.1287671232876</v>
       </c>
-      <c r="J130">
-        <f t="shared" ref="J130:J161" si="8">F130-I130</f>
+      <c r="J130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K130">
+        <f t="shared" ref="K130:K161" si="4">F130-I130</f>
         <v>0.30136986301389967</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <v>7.8</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
         <v>14</v>
       </c>
-      <c r="M130">
+      <c r="N130">
         <v>22.030596468814743</v>
       </c>
-      <c r="N130" t="s">
-        <v>21</v>
-      </c>
       <c r="O130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P130">
         <v>8</v>
@@ -8841,7 +8842,7 @@
         <v>47.1</v>
       </c>
       <c r="R130">
-        <f t="shared" ref="R130:R161" si="9">Q130-B130</f>
+        <f>Q130-B130</f>
         <v>0.39999999999999858</v>
       </c>
       <c r="S130">
@@ -8876,27 +8877,27 @@
       <c r="H131" s="4">
         <v>2</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="4">
         <v>11.5178082191781</v>
       </c>
-      <c r="J131">
-        <f t="shared" si="8"/>
+      <c r="J131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="4"/>
         <v>0.32602739726029917</v>
       </c>
-      <c r="K131">
+      <c r="L131">
         <v>8</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>14</v>
       </c>
-      <c r="M131">
+      <c r="N131">
         <v>15.89257994841797</v>
       </c>
-      <c r="N131" t="s">
-        <v>21</v>
-      </c>
       <c r="O131" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P131">
         <v>9</v>
@@ -8905,7 +8906,7 @@
         <v>57.4</v>
       </c>
       <c r="R131">
-        <f t="shared" si="9"/>
+        <f>Q131-B131</f>
         <v>1</v>
       </c>
       <c r="S131">
@@ -8940,27 +8941,27 @@
       <c r="H132" s="4">
         <v>-2</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="4">
         <v>12.901122838535899</v>
       </c>
-      <c r="J132">
-        <f t="shared" si="8"/>
+      <c r="J132" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="4"/>
         <v>0.28219178082190055</v>
       </c>
-      <c r="K132">
+      <c r="L132">
         <v>3.4</v>
       </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>14</v>
       </c>
-      <c r="M132">
+      <c r="N132">
         <v>23.923514739198978</v>
       </c>
-      <c r="N132" t="s">
-        <v>21</v>
-      </c>
       <c r="O132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P132">
         <v>9</v>
@@ -8969,7 +8970,7 @@
         <v>38</v>
       </c>
       <c r="R132">
-        <f t="shared" si="9"/>
+        <f>Q132-B132</f>
         <v>0</v>
       </c>
       <c r="S132">
@@ -9004,27 +9005,27 @@
       <c r="H133" s="4">
         <v>-2</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="4">
         <v>12.087671232876801</v>
       </c>
-      <c r="J133">
-        <f t="shared" si="8"/>
+      <c r="J133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="4"/>
         <v>3.3232876712326984</v>
       </c>
-      <c r="K133">
+      <c r="L133">
         <v>4</v>
       </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>16</v>
       </c>
-      <c r="M133">
+      <c r="N133">
         <v>20.438299071939955</v>
       </c>
-      <c r="N133" t="s">
-        <v>21</v>
-      </c>
       <c r="O133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P133">
         <v>8</v>
@@ -9033,7 +9034,7 @@
         <v>63.7</v>
       </c>
       <c r="R133">
-        <f t="shared" si="9"/>
+        <f>Q133-B133</f>
         <v>37.400000000000006</v>
       </c>
       <c r="S133">
@@ -9068,27 +9069,27 @@
       <c r="H134" s="4">
         <v>-2</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="4">
         <v>11.8192828804551</v>
       </c>
-      <c r="J134">
-        <f t="shared" si="8"/>
+      <c r="J134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="4"/>
         <v>2.1068493150685992</v>
       </c>
-      <c r="K134">
+      <c r="L134">
         <v>4.3</v>
       </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
         <v>14</v>
       </c>
-      <c r="M134">
+      <c r="N134">
         <v>30.116484746759323</v>
       </c>
-      <c r="N134" t="s">
-        <v>21</v>
-      </c>
       <c r="O134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P134">
         <v>8</v>
@@ -9097,7 +9098,7 @@
         <v>62.7</v>
       </c>
       <c r="R134">
-        <f t="shared" si="9"/>
+        <f>Q134-B134</f>
         <v>13.700000000000003</v>
       </c>
       <c r="S134">
@@ -9132,27 +9133,27 @@
       <c r="H135" s="4">
         <v>-2</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="4">
         <v>11.282191780821901</v>
       </c>
-      <c r="J135">
-        <f t="shared" si="8"/>
+      <c r="J135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="4"/>
         <v>0.39726027397249908</v>
       </c>
-      <c r="K135">
+      <c r="L135">
         <v>0.9</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>19</v>
       </c>
-      <c r="M135">
+      <c r="N135">
         <v>21.058763388933677</v>
       </c>
-      <c r="N135" t="s">
-        <v>21</v>
-      </c>
       <c r="O135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P135">
         <v>13</v>
@@ -9161,7 +9162,7 @@
         <v>60.9</v>
       </c>
       <c r="R135">
-        <f t="shared" si="9"/>
+        <f>Q135-B135</f>
         <v>0.29999999999999716</v>
       </c>
       <c r="S135">
@@ -9196,27 +9197,27 @@
       <c r="H136" s="4">
         <v>-1</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="4">
         <v>13.7698630136986</v>
       </c>
-      <c r="J136">
-        <f t="shared" si="8"/>
+      <c r="J136" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="4"/>
         <v>1.3178082191782003</v>
       </c>
-      <c r="K136">
+      <c r="L136">
         <v>5.4</v>
       </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
         <v>18</v>
       </c>
-      <c r="M136">
+      <c r="N136">
         <v>20.575343406658185</v>
       </c>
-      <c r="N136" t="s">
-        <v>21</v>
-      </c>
       <c r="O136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P136">
         <v>12</v>
@@ -9225,7 +9226,7 @@
         <v>53.5</v>
       </c>
       <c r="R136">
-        <f t="shared" si="9"/>
+        <f>Q136-B136</f>
         <v>13</v>
       </c>
       <c r="S136">
@@ -9260,27 +9261,27 @@
       <c r="H137" s="4">
         <v>-2</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="4">
         <v>13.050026199565799</v>
       </c>
-      <c r="J137">
-        <f t="shared" si="8"/>
+      <c r="J137" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="4"/>
         <v>0.79178082191780064</v>
       </c>
-      <c r="K137">
+      <c r="L137">
         <v>0.9</v>
       </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>16</v>
       </c>
-      <c r="M137">
+      <c r="N137">
         <v>30.711574101949349</v>
       </c>
-      <c r="N137" t="s">
-        <v>21</v>
-      </c>
       <c r="O137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P137">
         <v>6</v>
@@ -9289,7 +9290,7 @@
         <v>77.099999999999994</v>
       </c>
       <c r="R137">
-        <f t="shared" si="9"/>
+        <f>Q137-B137</f>
         <v>20.699999999999996</v>
       </c>
       <c r="S137">
@@ -9324,27 +9325,27 @@
       <c r="H138" s="4">
         <v>3</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="4">
         <v>11.506849315068401</v>
       </c>
-      <c r="J138">
-        <f t="shared" si="8"/>
+      <c r="J138" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="4"/>
         <v>0.67123287671229903</v>
       </c>
-      <c r="K138">
+      <c r="L138">
         <v>8.6</v>
       </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>14</v>
       </c>
-      <c r="M138">
+      <c r="N138">
         <v>29.177221772356962</v>
       </c>
-      <c r="N138" t="s">
+      <c r="O138" t="s">
         <v>20</v>
-      </c>
-      <c r="O138" t="s">
-        <v>22</v>
       </c>
       <c r="P138">
         <v>8</v>
@@ -9353,7 +9354,7 @@
         <v>57</v>
       </c>
       <c r="R138">
-        <f t="shared" si="9"/>
+        <f>Q138-B138</f>
         <v>8.5</v>
       </c>
       <c r="S138">
@@ -9388,27 +9389,27 @@
       <c r="H139" s="4">
         <v>-2</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="4">
         <v>10.1671232876713</v>
       </c>
-      <c r="J139">
-        <f t="shared" si="8"/>
+      <c r="J139" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="4"/>
         <v>4.0767123287670994</v>
       </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139" t="s">
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139" t="s">
         <v>14</v>
       </c>
-      <c r="M139">
+      <c r="N139">
         <v>-4.9666823228461467</v>
       </c>
-      <c r="N139" t="s">
-        <v>21</v>
-      </c>
       <c r="O139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P139">
         <v>8</v>
@@ -9417,7 +9418,7 @@
         <v>45.7</v>
       </c>
       <c r="R139">
-        <f t="shared" si="9"/>
+        <f>Q139-B139</f>
         <v>33.700000000000003</v>
       </c>
       <c r="S139">
@@ -9452,27 +9453,27 @@
       <c r="H140" s="4">
         <v>-1</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="4">
         <v>12.312328767123301</v>
       </c>
-      <c r="J140">
-        <f t="shared" si="8"/>
+      <c r="J140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="4"/>
         <v>0.32328767123289914</v>
       </c>
-      <c r="K140">
+      <c r="L140">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L140" t="s">
+      <c r="M140" t="s">
         <v>14</v>
       </c>
-      <c r="M140">
+      <c r="N140">
         <v>9.9010822094614159</v>
       </c>
-      <c r="N140" t="s">
-        <v>21</v>
-      </c>
       <c r="O140" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P140">
         <v>11</v>
@@ -9481,7 +9482,7 @@
         <v>42.6</v>
       </c>
       <c r="R140">
-        <f t="shared" si="9"/>
+        <f>Q140-B140</f>
         <v>0</v>
       </c>
       <c r="S140">
@@ -9516,27 +9517,27 @@
       <c r="H141" s="4">
         <v>2</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="4">
         <v>13.0651096638969</v>
       </c>
-      <c r="J141">
-        <f t="shared" si="8"/>
+      <c r="J141" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="4"/>
         <v>0.21369863013710066</v>
       </c>
-      <c r="K141">
+      <c r="L141">
         <v>3.2</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>19</v>
       </c>
-      <c r="M141">
+      <c r="N141">
         <v>22.969855890823201</v>
       </c>
-      <c r="N141" t="s">
-        <v>21</v>
-      </c>
       <c r="O141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P141">
         <v>14</v>
@@ -9545,7 +9546,7 @@
         <v>67.400000000000006</v>
       </c>
       <c r="R141">
-        <f t="shared" si="9"/>
+        <f>Q141-B141</f>
         <v>7.3000000000000043</v>
       </c>
       <c r="S141">
@@ -9580,27 +9581,27 @@
       <c r="H142" s="4">
         <v>2</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="4">
         <v>14.2328767123288</v>
       </c>
-      <c r="J142">
-        <f t="shared" si="8"/>
+      <c r="J142" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="4"/>
         <v>0.33424657534239977</v>
       </c>
-      <c r="K142">
+      <c r="L142">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L142" t="s">
+      <c r="M142" t="s">
         <v>14</v>
       </c>
-      <c r="M142">
+      <c r="N142">
         <v>25.670505072110632</v>
       </c>
-      <c r="N142" t="s">
+      <c r="O142" t="s">
         <v>20</v>
-      </c>
-      <c r="O142" t="s">
-        <v>22</v>
       </c>
       <c r="P142">
         <v>10</v>
@@ -9609,7 +9610,7 @@
         <v>53.7</v>
       </c>
       <c r="R142">
-        <f t="shared" si="9"/>
+        <f>Q142-B142</f>
         <v>4.4000000000000057</v>
       </c>
       <c r="S142">
@@ -9644,27 +9645,27 @@
       <c r="H143" s="4">
         <v>5</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="4">
         <v>17.658125608204301</v>
       </c>
-      <c r="J143">
-        <f t="shared" si="8"/>
+      <c r="J143" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="4"/>
         <v>0.31780821917799784</v>
       </c>
-      <c r="K143">
+      <c r="L143">
         <v>13.9</v>
       </c>
-      <c r="L143" t="s">
+      <c r="M143" t="s">
         <v>14</v>
       </c>
-      <c r="M143">
+      <c r="N143">
         <v>16.231589865248981</v>
       </c>
-      <c r="N143" t="s">
+      <c r="O143" t="s">
         <v>20</v>
-      </c>
-      <c r="O143" t="s">
-        <v>22</v>
       </c>
       <c r="P143">
         <v>11</v>
@@ -9673,7 +9674,7 @@
         <v>68.099999999999994</v>
       </c>
       <c r="R143">
-        <f t="shared" si="9"/>
+        <f>Q143-B143</f>
         <v>0</v>
       </c>
       <c r="S143">
@@ -9708,27 +9709,27 @@
       <c r="H144" s="4">
         <v>5</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="4">
         <v>17.814005539336701</v>
       </c>
-      <c r="J144">
-        <f t="shared" si="8"/>
+      <c r="J144" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="4"/>
         <v>0.25205479452069923</v>
       </c>
-      <c r="K144">
+      <c r="L144">
         <v>9</v>
       </c>
-      <c r="L144" t="s">
+      <c r="M144" t="s">
         <v>14</v>
       </c>
-      <c r="M144">
+      <c r="N144">
         <v>30.165432915137547</v>
       </c>
-      <c r="N144" t="s">
+      <c r="O144" t="s">
         <v>20</v>
-      </c>
-      <c r="O144" t="s">
-        <v>22</v>
       </c>
       <c r="P144">
         <v>8</v>
@@ -9737,7 +9738,7 @@
         <v>65.599999999999994</v>
       </c>
       <c r="R144">
-        <f t="shared" si="9"/>
+        <f>Q144-B144</f>
         <v>2.7999999999999972</v>
       </c>
       <c r="S144">
@@ -9772,27 +9773,27 @@
       <c r="H145" s="4">
         <v>2</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="4">
         <v>13.4123736806648</v>
       </c>
-      <c r="J145">
-        <f t="shared" si="8"/>
+      <c r="J145" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="4"/>
         <v>0.55616438356149978</v>
       </c>
-      <c r="K145">
+      <c r="L145">
         <v>2.7</v>
       </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
         <v>14</v>
       </c>
-      <c r="M145">
+      <c r="N145">
         <v>18.837468176398122</v>
       </c>
-      <c r="N145" t="s">
+      <c r="O145" t="s">
         <v>20</v>
-      </c>
-      <c r="O145" t="s">
-        <v>22</v>
       </c>
       <c r="P145">
         <v>9</v>
@@ -9801,7 +9802,7 @@
         <v>66.2</v>
       </c>
       <c r="R145">
-        <f t="shared" si="9"/>
+        <f>Q145-B145</f>
         <v>7.7000000000000028</v>
       </c>
       <c r="S145">
@@ -9836,27 +9837,27 @@
       <c r="H146" s="4">
         <v>5</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="4">
         <v>15.5452054794521</v>
       </c>
-      <c r="J146">
-        <f t="shared" si="8"/>
+      <c r="J146" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="4"/>
         <v>0.28767123287659935</v>
       </c>
-      <c r="K146">
+      <c r="L146">
         <v>16.5</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>14</v>
       </c>
-      <c r="M146">
+      <c r="N146">
         <v>27.25995888462171</v>
       </c>
-      <c r="N146" t="s">
+      <c r="O146" t="s">
         <v>20</v>
-      </c>
-      <c r="O146" t="s">
-        <v>22</v>
       </c>
       <c r="P146">
         <v>9</v>
@@ -9865,7 +9866,7 @@
         <v>83.5</v>
       </c>
       <c r="R146">
-        <f t="shared" si="9"/>
+        <f>Q146-B146</f>
         <v>8</v>
       </c>
       <c r="S146">
@@ -9900,27 +9901,27 @@
       <c r="H147" s="4">
         <v>2</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="4">
         <v>12.090410958904201</v>
       </c>
-      <c r="J147">
-        <f t="shared" si="8"/>
+      <c r="J147" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="4"/>
         <v>0.58630136986290005</v>
       </c>
-      <c r="K147">
+      <c r="L147">
         <v>7.9</v>
       </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>19</v>
       </c>
-      <c r="M147">
+      <c r="N147">
         <v>18.629842818358384</v>
       </c>
-      <c r="N147" t="s">
-        <v>21</v>
-      </c>
       <c r="O147" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P147">
         <v>13</v>
@@ -9929,7 +9930,7 @@
         <v>48.3</v>
       </c>
       <c r="R147">
-        <f t="shared" si="9"/>
+        <f>Q147-B147</f>
         <v>5</v>
       </c>
       <c r="S147">
@@ -9964,27 +9965,27 @@
       <c r="H148" s="4">
         <v>-2</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="4">
         <v>11.038356164383501</v>
       </c>
-      <c r="J148">
-        <f t="shared" si="8"/>
+      <c r="J148" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="4"/>
         <v>1.0602739726026993</v>
       </c>
-      <c r="K148">
+      <c r="L148">
         <v>6.4</v>
       </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
         <v>15</v>
       </c>
-      <c r="M148">
+      <c r="N148">
         <v>20.484932758821063</v>
       </c>
-      <c r="N148" t="s">
-        <v>21</v>
-      </c>
       <c r="O148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P148">
         <v>11</v>
@@ -9993,7 +9994,7 @@
         <v>56.1</v>
       </c>
       <c r="R148">
-        <f t="shared" si="9"/>
+        <f>Q148-B148</f>
         <v>25</v>
       </c>
       <c r="S148">
@@ -10028,27 +10029,27 @@
       <c r="H149" s="4">
         <v>-1</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="4">
         <v>14.041095890411</v>
       </c>
-      <c r="J149">
-        <f t="shared" si="8"/>
+      <c r="J149" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="4"/>
         <v>1.4301369863012994</v>
       </c>
-      <c r="K149">
+      <c r="L149">
         <v>3.3</v>
       </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
         <v>14</v>
       </c>
-      <c r="M149">
+      <c r="N149">
         <v>31.268162080673385</v>
       </c>
-      <c r="N149" t="s">
-        <v>21</v>
-      </c>
       <c r="O149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P149">
         <v>8</v>
@@ -10057,7 +10058,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="R149">
-        <f t="shared" si="9"/>
+        <f>Q149-B149</f>
         <v>17.299999999999997</v>
       </c>
       <c r="S149">
@@ -10092,27 +10093,27 @@
       <c r="H150" s="4">
         <v>4</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="4">
         <v>14.602739726027499</v>
       </c>
-      <c r="J150">
-        <f t="shared" si="8"/>
+      <c r="J150" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="4"/>
         <v>0.33972602739710034</v>
       </c>
-      <c r="K150">
+      <c r="L150">
         <v>10.4</v>
       </c>
-      <c r="L150" t="s">
+      <c r="M150" t="s">
         <v>16</v>
       </c>
-      <c r="M150">
+      <c r="N150">
         <v>30.707403744902546</v>
       </c>
-      <c r="N150" t="s">
-        <v>21</v>
-      </c>
       <c r="O150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P150">
         <v>8</v>
@@ -10121,7 +10122,7 @@
         <v>54.2</v>
       </c>
       <c r="R150">
-        <f t="shared" si="9"/>
+        <f>Q150-B150</f>
         <v>5.7000000000000028</v>
       </c>
       <c r="S150">
@@ -10156,27 +10157,27 @@
       <c r="H151" s="4">
         <v>2</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="4">
         <v>12.0027397260274</v>
       </c>
-      <c r="J151">
-        <f t="shared" si="8"/>
+      <c r="J151" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="4"/>
         <v>0.35616438356159996</v>
       </c>
-      <c r="K151">
+      <c r="L151">
         <v>10.6</v>
       </c>
-      <c r="L151" t="s">
+      <c r="M151" t="s">
         <v>14</v>
       </c>
-      <c r="M151">
+      <c r="N151">
         <v>7.1558175094542866</v>
       </c>
-      <c r="N151" t="s">
-        <v>21</v>
-      </c>
       <c r="O151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P151">
         <v>9</v>
@@ -10185,7 +10186,7 @@
         <v>53.3</v>
       </c>
       <c r="R151">
-        <f t="shared" si="9"/>
+        <f>Q151-B151</f>
         <v>3.5</v>
       </c>
       <c r="S151">
@@ -10220,27 +10221,27 @@
       <c r="H152" s="4">
         <v>0.75</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="4">
         <v>13.7520547945205</v>
       </c>
-      <c r="J152">
-        <f t="shared" si="8"/>
+      <c r="J152" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="4"/>
         <v>0.34520547945209934</v>
       </c>
-      <c r="K152">
+      <c r="L152">
         <v>2.8</v>
       </c>
-      <c r="L152" t="s">
+      <c r="M152" t="s">
         <v>19</v>
       </c>
-      <c r="M152">
+      <c r="N152">
         <v>13.856506340748554</v>
       </c>
-      <c r="N152" t="s">
-        <v>21</v>
-      </c>
       <c r="O152" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P152">
         <v>14</v>
@@ -10249,7 +10250,7 @@
         <v>43.6</v>
       </c>
       <c r="R152">
-        <f t="shared" si="9"/>
+        <f>Q152-B152</f>
         <v>0</v>
       </c>
       <c r="S152">
@@ -10284,27 +10285,27 @@
       <c r="H153" s="4">
         <v>-2</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="4">
         <v>11.054203158919099</v>
       </c>
-      <c r="J153">
-        <f t="shared" si="8"/>
+      <c r="J153" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="4"/>
         <v>2.5260273972603997</v>
       </c>
-      <c r="K153">
+      <c r="L153">
         <v>5.6</v>
       </c>
-      <c r="L153" t="s">
+      <c r="M153" t="s">
         <v>14</v>
       </c>
-      <c r="M153">
+      <c r="N153">
         <v>16.013323553346517</v>
       </c>
-      <c r="N153" t="s">
-        <v>21</v>
-      </c>
       <c r="O153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P153">
         <v>9</v>
@@ -10313,7 +10314,7 @@
         <v>106.4</v>
       </c>
       <c r="R153">
-        <f t="shared" si="9"/>
+        <f>Q153-B153</f>
         <v>36.800000000000011</v>
       </c>
       <c r="S153">
@@ -10348,27 +10349,27 @@
       <c r="H154" s="4">
         <v>-1</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="4">
         <v>15.958904109589</v>
       </c>
-      <c r="J154">
-        <f t="shared" si="8"/>
+      <c r="J154" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="4"/>
         <v>0.30684931506850077</v>
       </c>
-      <c r="K154">
+      <c r="L154">
         <v>6.1</v>
       </c>
-      <c r="L154" t="s">
+      <c r="M154" t="s">
         <v>14</v>
       </c>
-      <c r="M154">
+      <c r="N154">
         <v>21.900737975922198</v>
       </c>
-      <c r="N154" t="s">
-        <v>21</v>
-      </c>
       <c r="O154" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P154">
         <v>7</v>
@@ -10377,7 +10378,7 @@
         <v>42.3</v>
       </c>
       <c r="R154">
-        <f t="shared" si="9"/>
+        <f>Q154-B154</f>
         <v>0.5</v>
       </c>
       <c r="S154">
@@ -10412,27 +10413,27 @@
       <c r="H155" s="4">
         <v>-2</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="4">
         <v>12.432876712328801</v>
       </c>
-      <c r="J155">
-        <f t="shared" si="8"/>
+      <c r="J155" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="4"/>
         <v>0.9890410958903999</v>
       </c>
-      <c r="K155">
+      <c r="L155">
         <v>3.6</v>
       </c>
-      <c r="L155" t="s">
+      <c r="M155" t="s">
         <v>15</v>
       </c>
-      <c r="M155">
+      <c r="N155">
         <v>25.12556357194287</v>
       </c>
-      <c r="N155" t="s">
-        <v>21</v>
-      </c>
       <c r="O155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P155">
         <v>10</v>
@@ -10441,7 +10442,7 @@
         <v>64.5</v>
       </c>
       <c r="R155">
-        <f t="shared" si="9"/>
+        <f>Q155-B155</f>
         <v>23.700000000000003</v>
       </c>
       <c r="S155">
@@ -10476,27 +10477,27 @@
       <c r="H156" s="4">
         <v>-1</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="4">
         <v>11.5999999999999</v>
       </c>
-      <c r="J156">
-        <f t="shared" si="8"/>
+      <c r="J156" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="4"/>
         <v>0.51232876712330011</v>
       </c>
-      <c r="K156">
+      <c r="L156">
         <v>8.1</v>
       </c>
-      <c r="L156" t="s">
+      <c r="M156" t="s">
         <v>14</v>
       </c>
-      <c r="M156">
+      <c r="N156">
         <v>24.236169600590287</v>
       </c>
-      <c r="N156" t="s">
+      <c r="O156" t="s">
         <v>20</v>
-      </c>
-      <c r="O156" t="s">
-        <v>22</v>
       </c>
       <c r="P156">
         <v>8</v>
@@ -10505,7 +10506,7 @@
         <v>51.8</v>
       </c>
       <c r="R156">
-        <f t="shared" si="9"/>
+        <f>Q156-B156</f>
         <v>15.399999999999999</v>
       </c>
       <c r="S156">
@@ -10540,27 +10541,27 @@
       <c r="H157" s="4">
         <v>0.75</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="4">
         <v>13.8720188636873</v>
       </c>
-      <c r="J157">
-        <f t="shared" si="8"/>
+      <c r="J157" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="4"/>
         <v>0.39452054794539926</v>
       </c>
-      <c r="K157">
+      <c r="L157">
         <v>3.6</v>
       </c>
-      <c r="L157" t="s">
+      <c r="M157" t="s">
         <v>14</v>
       </c>
-      <c r="M157">
+      <c r="N157">
         <v>14.458449529232844</v>
       </c>
-      <c r="N157" t="s">
-        <v>21</v>
-      </c>
       <c r="O157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P157">
         <v>10</v>
@@ -10569,7 +10570,7 @@
         <v>61.5</v>
       </c>
       <c r="R157">
-        <f t="shared" si="9"/>
+        <f>Q157-B157</f>
         <v>4.8999999999999986</v>
       </c>
       <c r="S157">
@@ -10604,27 +10605,27 @@
       <c r="H158" s="4">
         <v>5</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="4">
         <v>14.432876712328801</v>
       </c>
-      <c r="J158">
-        <f t="shared" si="8"/>
+      <c r="J158" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="4"/>
         <v>0.38356164383549896</v>
       </c>
-      <c r="K158">
+      <c r="L158">
         <v>14.8</v>
       </c>
-      <c r="L158" t="s">
+      <c r="M158" t="s">
         <v>14</v>
       </c>
-      <c r="M158">
+      <c r="N158">
         <v>11.721039450151933</v>
       </c>
-      <c r="N158" t="s">
+      <c r="O158" t="s">
         <v>20</v>
-      </c>
-      <c r="O158" t="s">
-        <v>22</v>
       </c>
       <c r="P158">
         <v>8</v>
@@ -10633,7 +10634,7 @@
         <v>55.2</v>
       </c>
       <c r="R158">
-        <f t="shared" si="9"/>
+        <f>Q158-B158</f>
         <v>0</v>
       </c>
       <c r="S158">
@@ -10668,27 +10669,27 @@
       <c r="H159" s="4">
         <v>-1</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="4">
         <v>12.8630136986301</v>
       </c>
-      <c r="J159">
-        <f t="shared" si="8"/>
+      <c r="J159" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="4"/>
         <v>0.16164383561659967</v>
       </c>
-      <c r="K159">
+      <c r="L159">
         <v>5</v>
       </c>
-      <c r="L159" t="s">
+      <c r="M159" t="s">
         <v>14</v>
       </c>
-      <c r="M159">
+      <c r="N159">
         <v>18.874066184935643</v>
       </c>
-      <c r="N159" t="s">
-        <v>21</v>
-      </c>
       <c r="O159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P159">
         <v>8</v>
@@ -10697,7 +10698,7 @@
         <v>48.1</v>
       </c>
       <c r="R159">
-        <f t="shared" si="9"/>
+        <f>Q159-B159</f>
         <v>6.8999999999999986</v>
       </c>
       <c r="S159">
@@ -10732,27 +10733,27 @@
       <c r="H160" s="4">
         <v>-1</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="4">
         <v>12.0109289617487</v>
       </c>
-      <c r="J160">
-        <f t="shared" si="8"/>
+      <c r="J160" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="4"/>
         <v>1.5668313496520003</v>
       </c>
-      <c r="K160">
+      <c r="L160">
         <v>10.199999999999999</v>
       </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
         <v>14</v>
       </c>
-      <c r="M160">
+      <c r="N160">
         <v>11.397728673402698</v>
       </c>
-      <c r="N160" t="s">
+      <c r="O160" t="s">
         <v>20</v>
-      </c>
-      <c r="O160" t="s">
-        <v>22</v>
       </c>
       <c r="P160">
         <v>9</v>
@@ -10761,7 +10762,7 @@
         <v>57.3</v>
       </c>
       <c r="R160">
-        <f t="shared" si="9"/>
+        <f>Q160-B160</f>
         <v>14.5</v>
       </c>
       <c r="S160">
@@ -10796,27 +10797,27 @@
       <c r="H161" s="4">
         <v>3</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="4">
         <v>11.7315068493151</v>
       </c>
-      <c r="J161">
-        <f t="shared" si="8"/>
+      <c r="J161" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="4"/>
         <v>0.38904109589040026</v>
       </c>
-      <c r="K161">
+      <c r="L161">
         <v>8.5</v>
       </c>
-      <c r="L161" t="s">
+      <c r="M161" t="s">
         <v>14</v>
       </c>
-      <c r="M161">
+      <c r="N161">
         <v>21.777661179031664</v>
       </c>
-      <c r="N161" t="s">
+      <c r="O161" t="s">
         <v>20</v>
-      </c>
-      <c r="O161" t="s">
-        <v>22</v>
       </c>
       <c r="P161">
         <v>9</v>
@@ -10825,7 +10826,7 @@
         <v>64.599999999999994</v>
       </c>
       <c r="R161">
-        <f t="shared" si="9"/>
+        <f>Q161-B161</f>
         <v>10.099999999999994</v>
       </c>
       <c r="S161">
@@ -10860,27 +10861,27 @@
       <c r="H162" s="4">
         <v>-1</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="4">
         <v>12.013698630137</v>
       </c>
-      <c r="J162">
-        <f t="shared" ref="J162:J193" si="10">F162-I162</f>
+      <c r="J162" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K162">
+        <f t="shared" ref="K162:K193" si="5">F162-I162</f>
         <v>0.4054794520548004</v>
       </c>
-      <c r="K162">
+      <c r="L162">
         <v>4</v>
       </c>
-      <c r="L162" t="s">
+      <c r="M162" t="s">
         <v>16</v>
       </c>
-      <c r="M162">
+      <c r="N162">
         <v>11.333251293458005</v>
       </c>
-      <c r="N162" t="s">
-        <v>21</v>
-      </c>
       <c r="O162" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P162">
         <v>8</v>
@@ -10889,7 +10890,7 @@
         <v>47.3</v>
       </c>
       <c r="R162">
-        <f t="shared" ref="R162:R193" si="11">Q162-B162</f>
+        <f>Q162-B162</f>
         <v>0</v>
       </c>
       <c r="S162">
@@ -10924,27 +10925,27 @@
       <c r="H163" s="4">
         <v>2</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="4">
         <v>12.698630136986401</v>
       </c>
-      <c r="J163">
-        <f t="shared" si="10"/>
+      <c r="J163" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="5"/>
         <v>0.74794520547940024</v>
       </c>
-      <c r="K163">
+      <c r="L163">
         <v>17.899999999999999</v>
       </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>15</v>
       </c>
-      <c r="M163">
+      <c r="N163">
         <v>20.889635055239509</v>
       </c>
-      <c r="N163" t="s">
-        <v>21</v>
-      </c>
       <c r="O163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P163">
         <v>9</v>
@@ -10953,7 +10954,7 @@
         <v>61.3</v>
       </c>
       <c r="R163">
-        <f t="shared" si="11"/>
+        <f>Q163-B163</f>
         <v>13.299999999999997</v>
       </c>
       <c r="S163">
@@ -10988,27 +10989,27 @@
       <c r="H164" s="4">
         <v>-2</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="4">
         <v>10.5123287671233</v>
       </c>
-      <c r="J164">
-        <f t="shared" si="10"/>
+      <c r="J164" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="5"/>
         <v>0.40273972602749986</v>
       </c>
-      <c r="K164">
+      <c r="L164">
         <v>10.1</v>
       </c>
-      <c r="L164" t="s">
+      <c r="M164" t="s">
         <v>14</v>
       </c>
-      <c r="M164">
+      <c r="N164">
         <v>28.931077567006977</v>
       </c>
-      <c r="N164" t="s">
+      <c r="O164" t="s">
         <v>20</v>
-      </c>
-      <c r="O164" t="s">
-        <v>22</v>
       </c>
       <c r="P164">
         <v>9</v>
@@ -11017,7 +11018,7 @@
         <v>68.099999999999994</v>
       </c>
       <c r="R164">
-        <f t="shared" si="11"/>
+        <f>Q164-B164</f>
         <v>4.8999999999999915</v>
       </c>
       <c r="S164">
@@ -11052,27 +11053,27 @@
       <c r="H165" s="4">
         <v>0.75</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="4">
         <v>13.0684931506848</v>
       </c>
-      <c r="J165">
-        <f t="shared" si="10"/>
+      <c r="J165" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="5"/>
         <v>0.23835616438380036</v>
       </c>
-      <c r="K165">
+      <c r="L165">
         <v>4.5</v>
       </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
         <v>14</v>
       </c>
-      <c r="M165">
+      <c r="N165">
         <v>23.692698443516697</v>
       </c>
-      <c r="N165" t="s">
+      <c r="O165" t="s">
         <v>20</v>
-      </c>
-      <c r="O165" t="s">
-        <v>22</v>
       </c>
       <c r="P165">
         <v>11</v>
@@ -11081,7 +11082,7 @@
         <v>63.7</v>
       </c>
       <c r="R165">
-        <f t="shared" si="11"/>
+        <f>Q165-B165</f>
         <v>1.5</v>
       </c>
       <c r="S165">
@@ -11116,27 +11117,27 @@
       <c r="H166" s="4">
         <v>-2</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="4">
         <v>11.9835616438356</v>
       </c>
-      <c r="J166">
-        <f t="shared" si="10"/>
+      <c r="J166" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="5"/>
         <v>0.95890410958899963</v>
       </c>
-      <c r="K166">
+      <c r="L166">
         <v>2.9</v>
       </c>
-      <c r="L166" t="s">
+      <c r="M166" t="s">
         <v>18</v>
       </c>
-      <c r="M166">
+      <c r="N166">
         <v>27.13317578069428</v>
       </c>
-      <c r="N166" t="s">
-        <v>21</v>
-      </c>
       <c r="O166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P166">
         <v>12</v>
@@ -11145,7 +11146,7 @@
         <v>52.9</v>
       </c>
       <c r="R166">
-        <f t="shared" si="11"/>
+        <f>Q166-B166</f>
         <v>1.7999999999999972</v>
       </c>
       <c r="S166">
@@ -11180,27 +11181,27 @@
       <c r="H167" s="4">
         <v>4</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="4">
         <v>16.917808219178099</v>
       </c>
-      <c r="J167">
-        <f t="shared" si="10"/>
+      <c r="J167" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="5"/>
         <v>0.62739726027400167</v>
       </c>
-      <c r="K167">
+      <c r="L167">
         <v>13</v>
       </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
         <v>14</v>
       </c>
-      <c r="M167">
+      <c r="N167">
         <v>14.756551416934323</v>
       </c>
-      <c r="N167" t="s">
+      <c r="O167" t="s">
         <v>20</v>
-      </c>
-      <c r="O167" t="s">
-        <v>22</v>
       </c>
       <c r="P167">
         <v>8</v>
@@ -11209,7 +11210,7 @@
         <v>63.8</v>
       </c>
       <c r="R167">
-        <f t="shared" si="11"/>
+        <f>Q167-B167</f>
         <v>0.59999999999999432</v>
       </c>
       <c r="S167">
@@ -11244,27 +11245,27 @@
       <c r="H168" s="4">
         <v>4</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="4">
         <v>16.419178082191799</v>
       </c>
-      <c r="J168">
-        <f t="shared" si="10"/>
+      <c r="J168" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="5"/>
         <v>0.37260273972610136</v>
       </c>
-      <c r="K168">
+      <c r="L168">
         <v>7.6</v>
       </c>
-      <c r="L168" t="s">
+      <c r="M168" t="s">
         <v>17</v>
       </c>
-      <c r="M168">
+      <c r="N168">
         <v>11.645708140156426</v>
       </c>
-      <c r="N168" t="s">
-        <v>21</v>
-      </c>
       <c r="O168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P168">
         <v>9</v>
@@ -11273,7 +11274,7 @@
         <v>67.599999999999994</v>
       </c>
       <c r="R168">
-        <f t="shared" si="11"/>
+        <f>Q168-B168</f>
         <v>30.299999999999997</v>
       </c>
       <c r="S168">
@@ -11308,27 +11309,27 @@
       <c r="H169" s="4">
         <v>-2</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="4">
         <v>10.0465753424658</v>
       </c>
-      <c r="J169">
-        <f t="shared" si="10"/>
+      <c r="J169" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="5"/>
         <v>1.7643835616438004</v>
       </c>
-      <c r="K169">
+      <c r="L169">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L169" t="s">
+      <c r="M169" t="s">
         <v>19</v>
       </c>
-      <c r="M169">
+      <c r="N169">
         <v>9.221632883583279</v>
       </c>
-      <c r="N169" t="s">
-        <v>21</v>
-      </c>
       <c r="O169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P169">
         <v>13</v>
@@ -11337,7 +11338,7 @@
         <v>49.1</v>
       </c>
       <c r="R169">
-        <f t="shared" si="11"/>
+        <f>Q169-B169</f>
         <v>0.80000000000000426</v>
       </c>
       <c r="S169">
@@ -11372,27 +11373,27 @@
       <c r="H170" s="4">
         <v>5</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="4">
         <v>16.2657534246575</v>
       </c>
-      <c r="J170">
-        <f t="shared" si="10"/>
+      <c r="J170" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="5"/>
         <v>0.46575342465759917</v>
       </c>
-      <c r="K170">
+      <c r="L170">
         <v>12.4</v>
       </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>16</v>
       </c>
-      <c r="M170">
+      <c r="N170">
         <v>28.6601583518352</v>
       </c>
-      <c r="N170" t="s">
+      <c r="O170" t="s">
         <v>20</v>
-      </c>
-      <c r="O170" t="s">
-        <v>22</v>
       </c>
       <c r="P170">
         <v>7</v>
@@ -11401,7 +11402,7 @@
         <v>55.4</v>
       </c>
       <c r="R170">
-        <f t="shared" si="11"/>
+        <f>Q170-B170</f>
         <v>1.2999999999999972</v>
       </c>
       <c r="S170">
@@ -11436,27 +11437,27 @@
       <c r="H171" s="4">
         <v>-2</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="4">
         <v>11.2438356164384</v>
       </c>
-      <c r="J171">
-        <f t="shared" si="10"/>
+      <c r="J171" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="5"/>
         <v>0.34520547945210112</v>
       </c>
-      <c r="K171">
+      <c r="L171">
         <v>6.3</v>
       </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
         <v>15</v>
       </c>
-      <c r="M171">
+      <c r="N171">
         <v>22.959482433048382</v>
       </c>
-      <c r="N171" t="s">
+      <c r="O171" t="s">
         <v>20</v>
-      </c>
-      <c r="O171" t="s">
-        <v>23</v>
       </c>
       <c r="P171">
         <v>9</v>
@@ -11465,7 +11466,7 @@
         <v>67.099999999999994</v>
       </c>
       <c r="R171">
-        <f t="shared" si="11"/>
+        <f>Q171-B171</f>
         <v>11.799999999999997</v>
       </c>
       <c r="S171">
@@ -11500,27 +11501,27 @@
       <c r="H172" s="4">
         <v>5</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="4">
         <v>17.564383561643801</v>
       </c>
-      <c r="J172">
-        <f t="shared" si="10"/>
+      <c r="J172" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="5"/>
         <v>0.32054794520560037</v>
       </c>
-      <c r="K172">
+      <c r="L172">
         <v>5.9</v>
       </c>
-      <c r="L172" t="s">
+      <c r="M172" t="s">
         <v>14</v>
       </c>
-      <c r="M172">
+      <c r="N172">
         <v>7.7237177317391552</v>
       </c>
-      <c r="N172" t="s">
-        <v>21</v>
-      </c>
       <c r="O172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P172">
         <v>8</v>
@@ -11529,7 +11530,7 @@
         <v>48.2</v>
       </c>
       <c r="R172">
-        <f t="shared" si="11"/>
+        <f>Q172-B172</f>
         <v>8.2000000000000028</v>
       </c>
       <c r="S172">
@@ -11564,27 +11565,27 @@
       <c r="H173" s="4">
         <v>-1</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="4">
         <v>12.1123287671232</v>
       </c>
-      <c r="J173">
-        <f t="shared" si="10"/>
+      <c r="J173" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="5"/>
         <v>0.31780821917829982</v>
       </c>
-      <c r="K173">
+      <c r="L173">
         <v>6.6</v>
       </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
         <v>16</v>
       </c>
-      <c r="M173">
+      <c r="N173">
         <v>30.567526522205533</v>
       </c>
-      <c r="N173" t="s">
-        <v>21</v>
-      </c>
       <c r="O173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P173">
         <v>8</v>
@@ -11593,7 +11594,7 @@
         <v>54.5</v>
       </c>
       <c r="R173">
-        <f t="shared" si="11"/>
+        <f>Q173-B173</f>
         <v>6.3999999999999986</v>
       </c>
       <c r="S173">
@@ -11628,27 +11629,27 @@
       <c r="H174" s="4">
         <v>-1</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="4">
         <v>14.2090650497792</v>
       </c>
-      <c r="J174">
-        <f t="shared" si="10"/>
+      <c r="J174" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="5"/>
         <v>0.306849315068499</v>
       </c>
-      <c r="K174">
+      <c r="L174">
         <v>2.1</v>
       </c>
-      <c r="L174" t="s">
+      <c r="M174" t="s">
         <v>19</v>
       </c>
-      <c r="M174">
+      <c r="N174">
         <v>39.079934076255256</v>
       </c>
-      <c r="N174" t="s">
+      <c r="O174" t="s">
         <v>20</v>
-      </c>
-      <c r="O174" t="s">
-        <v>22</v>
       </c>
       <c r="P174">
         <v>14</v>
@@ -11657,7 +11658,7 @@
         <v>55.8</v>
       </c>
       <c r="R174">
-        <f t="shared" si="11"/>
+        <f>Q174-B174</f>
         <v>2.6999999999999957</v>
       </c>
       <c r="S174">
@@ -11692,27 +11693,27 @@
       <c r="H175" s="4">
         <v>-2</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="4">
         <v>10.759368216183899</v>
       </c>
-      <c r="J175">
-        <f t="shared" si="10"/>
+      <c r="J175" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="5"/>
         <v>2.1146043865558006</v>
       </c>
-      <c r="K175">
+      <c r="L175">
         <v>5</v>
       </c>
-      <c r="L175" t="s">
+      <c r="M175" t="s">
         <v>16</v>
       </c>
-      <c r="M175">
+      <c r="N175">
         <v>27.209797001338522</v>
       </c>
-      <c r="N175" t="s">
-        <v>21</v>
-      </c>
       <c r="O175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P175">
         <v>8</v>
@@ -11721,7 +11722,7 @@
         <v>53.5</v>
       </c>
       <c r="R175">
-        <f t="shared" si="11"/>
+        <f>Q175-B175</f>
         <v>3.5</v>
       </c>
       <c r="S175">
@@ -11756,27 +11757,27 @@
       <c r="H176" s="4">
         <v>-1</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="4">
         <v>13.427397260273899</v>
       </c>
-      <c r="J176">
-        <f t="shared" si="10"/>
+      <c r="J176" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="5"/>
         <v>0.50958904109600134</v>
       </c>
-      <c r="K176">
+      <c r="L176">
         <v>5.8</v>
       </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
         <v>14</v>
       </c>
-      <c r="M176">
+      <c r="N176">
         <v>20.761639187903921</v>
       </c>
-      <c r="N176" t="s">
-        <v>21</v>
-      </c>
       <c r="O176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P176">
         <v>8</v>
@@ -11785,7 +11786,7 @@
         <v>45.5</v>
       </c>
       <c r="R176">
-        <f t="shared" si="11"/>
+        <f>Q176-B176</f>
         <v>4.8999999999999986</v>
       </c>
       <c r="S176">
@@ -11820,27 +11821,27 @@
       <c r="H177" s="4">
         <v>-2</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="4">
         <v>10.0238640616813</v>
       </c>
-      <c r="J177">
-        <f t="shared" si="10"/>
+      <c r="J177" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="5"/>
         <v>0.45479452054789959</v>
       </c>
-      <c r="K177">
+      <c r="L177">
         <v>10.3</v>
       </c>
-      <c r="L177" t="s">
+      <c r="M177" t="s">
         <v>14</v>
       </c>
-      <c r="M177">
+      <c r="N177">
         <v>40.99591559050112</v>
       </c>
-      <c r="N177" t="s">
-        <v>21</v>
-      </c>
       <c r="O177" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P177">
         <v>8</v>
@@ -11849,7 +11850,7 @@
         <v>107</v>
       </c>
       <c r="R177">
-        <f t="shared" si="11"/>
+        <f>Q177-B177</f>
         <v>7.5</v>
       </c>
       <c r="S177">
@@ -11884,27 +11885,27 @@
       <c r="H178" s="4">
         <v>-2</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="4">
         <v>10.0917134516058</v>
       </c>
-      <c r="J178">
-        <f t="shared" si="10"/>
+      <c r="J178" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="5"/>
         <v>0.52876712328740005</v>
       </c>
-      <c r="K178">
+      <c r="L178">
         <v>3.8</v>
       </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
         <v>14</v>
       </c>
-      <c r="M178">
+      <c r="N178">
         <v>28.406675599532466</v>
       </c>
-      <c r="N178" t="s">
+      <c r="O178" t="s">
         <v>20</v>
-      </c>
-      <c r="O178" t="s">
-        <v>22</v>
       </c>
       <c r="P178">
         <v>10</v>
@@ -11913,7 +11914,7 @@
         <v>76</v>
       </c>
       <c r="R178">
-        <f t="shared" si="11"/>
+        <f>Q178-B178</f>
         <v>18.600000000000001</v>
       </c>
       <c r="S178">
@@ -11948,27 +11949,27 @@
       <c r="H179" s="4">
         <v>-1</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="4">
         <v>12.8465753424657</v>
       </c>
-      <c r="J179">
-        <f t="shared" si="10"/>
+      <c r="J179" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="5"/>
         <v>0.23835616438350016</v>
       </c>
-      <c r="K179">
+      <c r="L179">
         <v>11.4</v>
       </c>
-      <c r="L179" t="s">
+      <c r="M179" t="s">
         <v>14</v>
       </c>
-      <c r="M179">
+      <c r="N179">
         <v>26.066610395122606</v>
       </c>
-      <c r="N179" t="s">
-        <v>21</v>
-      </c>
       <c r="O179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P179">
         <v>7</v>
@@ -11977,7 +11978,7 @@
         <v>64.8</v>
       </c>
       <c r="R179">
-        <f t="shared" si="11"/>
+        <f>Q179-B179</f>
         <v>0</v>
       </c>
       <c r="S179">
@@ -12012,27 +12013,27 @@
       <c r="H180" s="4">
         <v>-2</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="4">
         <v>13.079452054794499</v>
       </c>
-      <c r="J180">
-        <f t="shared" si="10"/>
+      <c r="J180" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="5"/>
         <v>0.27397260273979995</v>
       </c>
-      <c r="K180">
+      <c r="L180">
         <v>2.1</v>
       </c>
-      <c r="L180" t="s">
+      <c r="M180" t="s">
         <v>18</v>
       </c>
-      <c r="M180">
+      <c r="N180">
         <v>24.738155781144325</v>
       </c>
-      <c r="N180" t="s">
-        <v>21</v>
-      </c>
       <c r="O180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P180">
         <v>13</v>
@@ -12041,7 +12042,7 @@
         <v>54.4</v>
       </c>
       <c r="R180">
-        <f t="shared" si="11"/>
+        <f>Q180-B180</f>
         <v>7.1000000000000014</v>
       </c>
       <c r="S180">
@@ -12076,27 +12077,27 @@
       <c r="H181" s="4">
         <v>-2</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="4">
         <v>14.9041095890411</v>
       </c>
-      <c r="J181">
-        <f t="shared" si="10"/>
+      <c r="J181" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="5"/>
         <v>0.36712328767109881</v>
       </c>
-      <c r="K181">
+      <c r="L181">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L181" t="s">
+      <c r="M181" t="s">
         <v>14</v>
       </c>
-      <c r="M181">
+      <c r="N181">
         <v>41.160770383706499</v>
       </c>
-      <c r="N181" t="s">
-        <v>21</v>
-      </c>
       <c r="O181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P181">
         <v>9</v>
@@ -12105,7 +12106,7 @@
         <v>66.7</v>
       </c>
       <c r="R181">
-        <f t="shared" si="11"/>
+        <f>Q181-B181</f>
         <v>6.3000000000000043</v>
       </c>
       <c r="S181">
@@ -12140,27 +12141,27 @@
       <c r="H182" s="4">
         <v>3</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="4">
         <v>11.438356164383601</v>
       </c>
-      <c r="J182">
-        <f t="shared" si="10"/>
+      <c r="J182" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="5"/>
         <v>0.39726027397249908</v>
       </c>
-      <c r="K182">
+      <c r="L182">
         <v>1.9</v>
       </c>
-      <c r="L182" t="s">
+      <c r="M182" t="s">
         <v>15</v>
       </c>
-      <c r="M182">
+      <c r="N182">
         <v>-24.101013463094223</v>
       </c>
-      <c r="N182" t="s">
-        <v>21</v>
-      </c>
       <c r="O182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P182">
         <v>9</v>
@@ -12169,7 +12170,7 @@
         <v>52.6</v>
       </c>
       <c r="R182">
-        <f t="shared" si="11"/>
+        <f>Q182-B182</f>
         <v>7.1000000000000014</v>
       </c>
       <c r="S182">
@@ -12204,27 +12205,27 @@
       <c r="H183" s="4">
         <v>3</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="4">
         <v>12.2547945205479</v>
       </c>
-      <c r="J183">
-        <f t="shared" si="10"/>
+      <c r="J183" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="5"/>
         <v>0.47671232876719927</v>
       </c>
-      <c r="K183">
+      <c r="L183">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L183" t="s">
+      <c r="M183" t="s">
         <v>14</v>
       </c>
-      <c r="M183">
+      <c r="N183">
         <v>31.154217946113107</v>
       </c>
-      <c r="N183" t="s">
+      <c r="O183" t="s">
         <v>20</v>
-      </c>
-      <c r="O183" t="s">
-        <v>22</v>
       </c>
       <c r="P183">
         <v>8</v>
@@ -12233,7 +12234,7 @@
         <v>50.2</v>
       </c>
       <c r="R183">
-        <f t="shared" si="11"/>
+        <f>Q183-B183</f>
         <v>0</v>
       </c>
       <c r="S183">
@@ -12268,27 +12269,27 @@
       <c r="H184" s="4">
         <v>-2</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="4">
         <v>11</v>
       </c>
-      <c r="J184">
-        <f t="shared" si="10"/>
+      <c r="J184" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="5"/>
         <v>1.4136986301368992</v>
       </c>
-      <c r="K184">
+      <c r="L184">
         <v>4.5</v>
       </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
         <v>14</v>
       </c>
-      <c r="M184">
+      <c r="N184">
         <v>7.7099623445143504</v>
       </c>
-      <c r="N184" t="s">
-        <v>21</v>
-      </c>
       <c r="O184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P184">
         <v>9</v>
@@ -12297,7 +12298,7 @@
         <v>63.7</v>
       </c>
       <c r="R184">
-        <f t="shared" si="11"/>
+        <f>Q184-B184</f>
         <v>16.400000000000006</v>
       </c>
       <c r="S184">
@@ -12332,27 +12333,27 @@
       <c r="H185" s="4">
         <v>1</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="4">
         <v>12.586301369863101</v>
       </c>
-      <c r="J185">
-        <f t="shared" si="10"/>
+      <c r="J185" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="5"/>
         <v>0.25479452054789853</v>
       </c>
-      <c r="K185">
+      <c r="L185">
         <v>0.4</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
         <v>18</v>
       </c>
-      <c r="M185">
+      <c r="N185">
         <v>10.018389243083949</v>
       </c>
-      <c r="N185" t="s">
-        <v>21</v>
-      </c>
       <c r="O185" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P185">
         <v>12</v>
@@ -12361,7 +12362,7 @@
         <v>42</v>
       </c>
       <c r="R185">
-        <f t="shared" si="11"/>
+        <f>Q185-B185</f>
         <v>8.5</v>
       </c>
       <c r="S185">
@@ -12396,27 +12397,27 @@
       <c r="H186" s="4">
         <v>1</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="4">
         <v>12.0027397260274</v>
       </c>
-      <c r="J186">
-        <f t="shared" si="10"/>
+      <c r="J186" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="5"/>
         <v>0.72328767123280002</v>
       </c>
-      <c r="K186">
+      <c r="L186">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
         <v>14</v>
       </c>
-      <c r="M186">
+      <c r="N186">
         <v>18.751603096358512</v>
       </c>
-      <c r="N186" t="s">
-        <v>21</v>
-      </c>
       <c r="O186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P186">
         <v>9</v>
@@ -12425,7 +12426,7 @@
         <v>41.4</v>
       </c>
       <c r="R186">
-        <f t="shared" si="11"/>
+        <f>Q186-B186</f>
         <v>0.60000000000000142</v>
       </c>
       <c r="S186">
@@ -12460,27 +12461,27 @@
       <c r="H187" s="4">
         <v>-2</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="4">
         <v>10.7260273972602</v>
       </c>
-      <c r="J187">
-        <f t="shared" si="10"/>
+      <c r="J187" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="5"/>
         <v>0.55342465753430048</v>
       </c>
-      <c r="K187">
+      <c r="L187">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
         <v>15</v>
       </c>
-      <c r="M187">
+      <c r="N187">
         <v>20.182277391842259</v>
       </c>
-      <c r="N187" t="s">
-        <v>21</v>
-      </c>
       <c r="O187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P187">
         <v>9</v>
@@ -12489,7 +12490,7 @@
         <v>64.599999999999994</v>
       </c>
       <c r="R187">
-        <f t="shared" si="11"/>
+        <f>Q187-B187</f>
         <v>18.099999999999994</v>
       </c>
       <c r="S187">
@@ -12524,27 +12525,27 @@
       <c r="H188" s="4">
         <v>2</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="4">
         <v>11.895890410958801</v>
       </c>
-      <c r="J188">
-        <f t="shared" si="10"/>
+      <c r="J188" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="5"/>
         <v>0.47397260273989872</v>
       </c>
-      <c r="K188">
+      <c r="L188">
         <v>19</v>
       </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>14</v>
       </c>
-      <c r="M188">
+      <c r="N188">
         <v>41.67059496014496</v>
       </c>
-      <c r="N188" t="s">
-        <v>21</v>
-      </c>
       <c r="O188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P188">
         <v>10</v>
@@ -12553,7 +12554,7 @@
         <v>100.2</v>
       </c>
       <c r="R188">
-        <f t="shared" si="11"/>
+        <f>Q188-B188</f>
         <v>15.5</v>
       </c>
       <c r="S188">
@@ -12588,27 +12589,27 @@
       <c r="H189" s="4">
         <v>2</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="4">
         <v>15.7917808219179</v>
       </c>
-      <c r="J189">
-        <f t="shared" si="10"/>
+      <c r="J189" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="5"/>
         <v>0.2849315068492011</v>
       </c>
-      <c r="K189">
+      <c r="L189">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L189" t="s">
+      <c r="M189" t="s">
         <v>14</v>
       </c>
-      <c r="M189">
+      <c r="N189">
         <v>19.417116787098067</v>
       </c>
-      <c r="N189" t="s">
+      <c r="O189" t="s">
         <v>20</v>
-      </c>
-      <c r="O189" t="s">
-        <v>22</v>
       </c>
       <c r="P189">
         <v>9</v>
@@ -12617,7 +12618,7 @@
         <v>56.1</v>
       </c>
       <c r="R189">
-        <f t="shared" si="11"/>
+        <f>Q189-B189</f>
         <v>8.1000000000000014</v>
       </c>
       <c r="S189">
@@ -12652,27 +12653,27 @@
       <c r="H190" s="4">
         <v>0.75</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="4">
         <v>12.1123287671232</v>
       </c>
-      <c r="J190">
-        <f t="shared" si="10"/>
+      <c r="J190" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="5"/>
         <v>8.4931506849500238E-2</v>
       </c>
-      <c r="K190">
+      <c r="L190">
         <v>2.5</v>
       </c>
-      <c r="L190" t="s">
+      <c r="M190" t="s">
         <v>14</v>
       </c>
-      <c r="M190">
+      <c r="N190">
         <v>25.124230298674014</v>
       </c>
-      <c r="N190" t="s">
-        <v>21</v>
-      </c>
       <c r="O190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P190">
         <v>8</v>
@@ -12681,7 +12682,7 @@
         <v>52.8</v>
       </c>
       <c r="R190">
-        <f t="shared" si="11"/>
+        <f>Q190-B190</f>
         <v>10</v>
       </c>
       <c r="S190">
@@ -12716,27 +12717,27 @@
       <c r="H191" s="4">
         <v>-2</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="4">
         <v>12.216438356164399</v>
       </c>
-      <c r="J191">
-        <f t="shared" si="10"/>
+      <c r="J191" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="5"/>
         <v>0.16986301369870027</v>
       </c>
-      <c r="K191">
+      <c r="L191">
         <v>11.9</v>
       </c>
-      <c r="L191" t="s">
+      <c r="M191" t="s">
         <v>14</v>
       </c>
-      <c r="M191">
+      <c r="N191">
         <v>30.659514107157715</v>
       </c>
-      <c r="N191" t="s">
-        <v>21</v>
-      </c>
       <c r="O191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P191">
         <v>9</v>
@@ -12745,7 +12746,7 @@
         <v>64.2</v>
       </c>
       <c r="R191">
-        <f t="shared" si="11"/>
+        <f>Q191-B191</f>
         <v>0</v>
       </c>
       <c r="S191">
@@ -12780,27 +12781,27 @@
       <c r="H192" s="4">
         <v>-2</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="4">
         <v>12.479452054794599</v>
       </c>
-      <c r="J192">
-        <f t="shared" si="10"/>
+      <c r="J192" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="5"/>
         <v>0.20821917808209989</v>
       </c>
-      <c r="K192">
+      <c r="L192">
         <v>10.8</v>
       </c>
-      <c r="L192" t="s">
+      <c r="M192" t="s">
         <v>16</v>
       </c>
-      <c r="M192">
+      <c r="N192">
         <v>20.032088845290676</v>
       </c>
-      <c r="N192" t="s">
+      <c r="O192" t="s">
         <v>20</v>
-      </c>
-      <c r="O192" t="s">
-        <v>22</v>
       </c>
       <c r="P192">
         <v>8</v>
@@ -12809,7 +12810,7 @@
         <v>53.6</v>
       </c>
       <c r="R192">
-        <f t="shared" si="11"/>
+        <f>Q192-B192</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="S192">
@@ -12844,27 +12845,27 @@
       <c r="H193" s="4">
         <v>-2</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="4">
         <v>11.6526461561493</v>
       </c>
-      <c r="J193">
-        <f t="shared" si="10"/>
+      <c r="J193" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="5"/>
         <v>2.4843401452205995</v>
       </c>
-      <c r="K193">
+      <c r="L193">
         <v>1.4</v>
       </c>
-      <c r="L193" t="s">
+      <c r="M193" t="s">
         <v>16</v>
       </c>
-      <c r="M193">
+      <c r="N193">
         <v>13.348561439507849</v>
       </c>
-      <c r="N193" t="s">
-        <v>21</v>
-      </c>
       <c r="O193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P193">
         <v>8</v>
@@ -12873,7 +12874,7 @@
         <v>35.700000000000003</v>
       </c>
       <c r="R193">
-        <f t="shared" si="11"/>
+        <f>Q193-B193</f>
         <v>15.700000000000003</v>
       </c>
       <c r="S193">
@@ -12908,27 +12909,27 @@
       <c r="H194" s="4">
         <v>-1</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="4">
         <v>11.852054794520701</v>
       </c>
-      <c r="J194">
-        <f t="shared" ref="J194:J225" si="12">F194-I194</f>
+      <c r="J194" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K194">
+        <f t="shared" ref="K194" si="6">F194-I194</f>
         <v>0.63287671232859921</v>
       </c>
-      <c r="K194">
+      <c r="L194">
         <v>11</v>
       </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
         <v>18</v>
       </c>
-      <c r="M194">
+      <c r="N194">
         <v>20.666127913444683</v>
       </c>
-      <c r="N194" t="s">
-        <v>21</v>
-      </c>
       <c r="O194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P194">
         <v>13</v>
@@ -12937,7 +12938,7 @@
         <v>55.7</v>
       </c>
       <c r="R194">
-        <f t="shared" ref="R194:R225" si="13">Q194-B194</f>
+        <f>Q194-B194</f>
         <v>14.200000000000003</v>
       </c>
       <c r="S194">
